--- a/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012019217172845</v>
+        <v>1.012019217172846</v>
       </c>
       <c r="D3">
-        <v>1.029133490766831</v>
+        <v>1.029133490766832</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.027432064763403</v>
+        <v>1.027432064763404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051358538358436</v>
+        <v>1.051358538358437</v>
       </c>
       <c r="J3">
-        <v>1.032187503886513</v>
+        <v>1.032187503886514</v>
       </c>
       <c r="K3">
-        <v>1.039406694377714</v>
+        <v>1.039406694377715</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.037725578089115</v>
+        <v>1.037725578089117</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016601934446273</v>
+        <v>1.016601934446271</v>
       </c>
       <c r="D4">
-        <v>1.032754457236837</v>
+        <v>1.032754457236835</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.031822573129782</v>
+        <v>1.03182257312978</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053113133134175</v>
+        <v>1.053113133134174</v>
       </c>
       <c r="J4">
-        <v>1.035590288378335</v>
+        <v>1.035590288378334</v>
       </c>
       <c r="K4">
-        <v>1.04247300565832</v>
+        <v>1.042473005658319</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.041551518859072</v>
+        <v>1.041551518859071</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018494965286711</v>
+        <v>1.018494965286712</v>
       </c>
       <c r="D5">
-        <v>1.034250566229583</v>
+        <v>1.034250566229584</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.033637855547433</v>
+        <v>1.033637855547434</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.053834395981646</v>
       </c>
       <c r="J5">
-        <v>1.036994345185278</v>
+        <v>1.036994345185279</v>
       </c>
       <c r="K5">
-        <v>1.043737779248087</v>
+        <v>1.043737779248088</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
         <v>1.043131708462539</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018810901413223</v>
+        <v>1.018810901413222</v>
       </c>
       <c r="D6">
-        <v>1.034500276682695</v>
+        <v>1.034500276682694</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.033940910849127</v>
+        <v>1.033940910849126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053954561537964</v>
+        <v>1.053954561537963</v>
       </c>
       <c r="J6">
-        <v>1.03722858061325</v>
+        <v>1.037228580613249</v>
       </c>
       <c r="K6">
-        <v>1.043948751426912</v>
+        <v>1.04394875142691</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.043395417539441</v>
+        <v>1.04339541753944</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.016627358504844</v>
       </c>
       <c r="D7">
-        <v>1.032774549204008</v>
+        <v>1.032774549204009</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
         <v>1.031846946564215</v>
@@ -629,16 +629,16 @@
         <v>1.053122833983664</v>
       </c>
       <c r="J7">
-        <v>1.035609151621003</v>
+        <v>1.035609151621004</v>
       </c>
       <c r="K7">
-        <v>1.042489999458861</v>
+        <v>1.042489999458862</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.041572742360104</v>
+        <v>1.041572742360105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007210518718547</v>
+        <v>1.007210518718546</v>
       </c>
       <c r="D8">
-        <v>1.025335503520315</v>
+        <v>1.025335503520314</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.022831026839462</v>
+        <v>1.022831026839461</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1.049505282293205</v>
       </c>
       <c r="J8">
-        <v>1.028611606871756</v>
+        <v>1.028611606871755</v>
       </c>
       <c r="K8">
         <v>1.036182886039521</v>
@@ -676,7 +676,7 @@
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.03371036917719</v>
+        <v>1.033710369177189</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.989379744755422</v>
+        <v>0.9893797447554207</v>
       </c>
       <c r="D9">
-        <v>1.01127036942343</v>
+        <v>1.011270369423429</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>1.005821938339874</v>
+        <v>1.005821938339873</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042540759636508</v>
+        <v>1.042540759636507</v>
       </c>
       <c r="J9">
-        <v>1.015313187354852</v>
+        <v>1.015313187354851</v>
       </c>
       <c r="K9">
-        <v>1.024183201408639</v>
+        <v>1.024183201408638</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>1.018821259613841</v>
+        <v>1.018821259613839</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9765021048374448</v>
+        <v>0.976502104837445</v>
       </c>
       <c r="D10">
-        <v>1.00113460828147</v>
+        <v>1.001134608281471</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9935868557197137</v>
+        <v>0.9935868557197143</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>1.005680061444469</v>
       </c>
       <c r="K10">
-        <v>1.015483407198879</v>
+        <v>1.01548340719888</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
         <v>1.008072874996855</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9706489340286683</v>
+        <v>0.9706489340286663</v>
       </c>
       <c r="D11">
-        <v>0.996535081993172</v>
+        <v>0.9965350819931696</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9880391013541422</v>
+        <v>0.9880391013541406</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035101027359966</v>
+        <v>1.035101027359965</v>
       </c>
       <c r="J11">
-        <v>1.001295864524486</v>
+        <v>1.001295864524484</v>
       </c>
       <c r="K11">
-        <v>1.011522638754778</v>
+        <v>1.011522638754777</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.003190163624935</v>
+        <v>1.003190163624933</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9684289816271204</v>
+        <v>0.9684289816271228</v>
       </c>
       <c r="D12">
-        <v>0.9947919192315865</v>
+        <v>0.9947919192315886</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9859371573640291</v>
+        <v>0.9859371573640321</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034212654767914</v>
+        <v>1.034212654767916</v>
       </c>
       <c r="J12">
-        <v>0.9996323027997314</v>
+        <v>0.9996323027997337</v>
       </c>
       <c r="K12">
-        <v>1.010019582698481</v>
+        <v>1.010019582698483</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>1.001338831311517</v>
+        <v>1.001338831311519</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689073165431423</v>
+        <v>0.9689073165431418</v>
       </c>
       <c r="D13">
-        <v>0.9951674570305444</v>
+        <v>0.9951674570305441</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9863899640532527</v>
+        <v>0.9863899640532524</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.034404177369378</v>
       </c>
       <c r="J13">
-        <v>0.9999907838265656</v>
+        <v>0.9999907838265651</v>
       </c>
       <c r="K13">
         <v>1.010343482977177</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>1.00173771191968</v>
+        <v>1.001737711919679</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9704663932740748</v>
+        <v>0.970466393274076</v>
       </c>
       <c r="D14">
-        <v>0.9963917184648429</v>
+        <v>0.996391718464844</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9878662190817183</v>
+        <v>0.9878662190817195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035028025852718</v>
+        <v>1.035028025852719</v>
       </c>
       <c r="J14">
-        <v>1.001159088860227</v>
+        <v>1.001159088860229</v>
       </c>
       <c r="K14">
-        <v>1.011399062677646</v>
+        <v>1.011399062677647</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.003037921431432</v>
+        <v>1.003037921431433</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9714207840673177</v>
+        <v>0.9714207840673165</v>
       </c>
       <c r="D15">
-        <v>0.9971413308720846</v>
+        <v>0.9971413308720836</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9887702009773055</v>
+        <v>0.9887702009773046</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.035409609977763</v>
       </c>
       <c r="J15">
-        <v>1.00187417291684</v>
+        <v>1.001874172916839</v>
       </c>
       <c r="K15">
-        <v>1.012045130942103</v>
+        <v>1.012045130942102</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.003833923400071</v>
+        <v>1.003833923400069</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768843779191084</v>
+        <v>0.9768843779191078</v>
       </c>
       <c r="D16">
         <v>1.001435174717367</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9939494712577234</v>
+        <v>0.9939494712577223</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.03758936809284</v>
       </c>
       <c r="J16">
-        <v>1.00596628568238</v>
+        <v>1.005966285682379</v>
       </c>
       <c r="K16">
-        <v>1.015741963191813</v>
+        <v>1.015741963191812</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>1.008391834194736</v>
+        <v>1.008391834194735</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9802345825020372</v>
+        <v>0.9802345825020364</v>
       </c>
       <c r="D17">
         <v>1.004070165139272</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9971289205631287</v>
+        <v>0.9971289205631284</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038921770209517</v>
+        <v>1.038921770209516</v>
       </c>
       <c r="J17">
         <v>1.008474094184108</v>
       </c>
       <c r="K17">
-        <v>1.018007204002465</v>
+        <v>1.018007204002464</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.011187478171398</v>
+        <v>1.011187478171397</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9821622798315289</v>
+        <v>0.9821622798315298</v>
       </c>
       <c r="D18">
         <v>1.005587009623633</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.998959606114053</v>
+        <v>0.998959606114054</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039686887297543</v>
+        <v>1.039686887297544</v>
       </c>
       <c r="J18">
-        <v>1.009916534947363</v>
+        <v>1.009916534947364</v>
       </c>
       <c r="K18">
-        <v>1.019309995882283</v>
+        <v>1.019309995882284</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.012796322309552</v>
+        <v>1.012796322309553</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9828152115837303</v>
+        <v>0.9828152115837322</v>
       </c>
       <c r="D19">
-        <v>1.006100890688155</v>
+        <v>1.006100890688156</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9995798847897639</v>
+        <v>0.9995798847897658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039945775890356</v>
+        <v>1.039945775890357</v>
       </c>
       <c r="J19">
-        <v>1.010405009742199</v>
+        <v>1.010405009742201</v>
       </c>
       <c r="K19">
-        <v>1.019751156360755</v>
+        <v>1.019751156360756</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>1.013341291521192</v>
+        <v>1.013341291521194</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.979877898506432</v>
+        <v>0.9798778985064303</v>
       </c>
       <c r="D20">
-        <v>1.003789555392383</v>
+        <v>1.003789555392381</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.996790286196906</v>
+        <v>0.9967902861969041</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038780073941099</v>
+        <v>1.038780073941098</v>
       </c>
       <c r="J20">
-        <v>1.008207152897373</v>
+        <v>1.008207152897372</v>
       </c>
       <c r="K20">
-        <v>1.017766095731997</v>
+        <v>1.017766095731995</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>1.01088981033165</v>
+        <v>1.010889810331648</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9700085857181886</v>
+        <v>0.9700085857181899</v>
       </c>
       <c r="D21">
-        <v>0.9960321882693342</v>
+        <v>0.9960321882693355</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9874326702567344</v>
+        <v>0.9874326702567354</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034844902522992</v>
+        <v>1.034844902522993</v>
       </c>
       <c r="J21">
-        <v>1.000816047287822</v>
+        <v>1.000816047287823</v>
       </c>
       <c r="K21">
-        <v>1.011089123999388</v>
+        <v>1.011089123999389</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.00265611128473</v>
+        <v>1.002656111284731</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9635356930754214</v>
+        <v>0.9635356930754233</v>
       </c>
       <c r="D22">
-        <v>0.9909522621523624</v>
+        <v>0.9909522621523644</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9813081992745544</v>
+        <v>0.9813081992745564</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032250264321732</v>
+        <v>1.032250264321733</v>
       </c>
       <c r="J22">
-        <v>0.9959641713919329</v>
+        <v>0.9959641713919346</v>
       </c>
       <c r="K22">
-        <v>1.006705112845191</v>
+        <v>1.006705112845193</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9972592666677261</v>
+        <v>0.997259266667728</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.966994032029176</v>
+        <v>0.9669940320291754</v>
       </c>
       <c r="D23">
-        <v>0.993665559026118</v>
+        <v>0.9936655590261174</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9845791217941791</v>
+        <v>0.9845791217941788</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>1.033637773297307</v>
       </c>
       <c r="J23">
-        <v>0.9985567998954071</v>
+        <v>0.9985567998954066</v>
       </c>
       <c r="K23">
-        <v>1.009047807357197</v>
+        <v>1.009047807357196</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
         <v>1.000142328798928</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9800391499867677</v>
+        <v>0.9800391499867678</v>
       </c>
       <c r="D24">
         <v>1.003916412750837</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9969433738679715</v>
+        <v>0.9969433738679717</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1.017875099100951</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
         <v>1.01102438076111</v>
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9941512008333878</v>
+        <v>0.9941512008333862</v>
       </c>
       <c r="D25">
-        <v>1.015030995933311</v>
+        <v>1.015030995933309</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.010365678206073</v>
+        <v>1.010365678206071</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04441728908448</v>
+        <v>1.044417289084479</v>
       </c>
       <c r="J25">
-        <v>1.018877016452599</v>
+        <v>1.018877016452597</v>
       </c>
       <c r="K25">
-        <v>1.027400371535283</v>
+        <v>1.027400371535281</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.022805183589979</v>
+        <v>1.022805183589978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012019217172846</v>
+        <v>1.012019217172845</v>
       </c>
       <c r="D3">
-        <v>1.029133490766832</v>
+        <v>1.029133490766831</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.027432064763404</v>
+        <v>1.027432064763403</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051358538358437</v>
+        <v>1.051358538358436</v>
       </c>
       <c r="J3">
-        <v>1.032187503886514</v>
+        <v>1.032187503886513</v>
       </c>
       <c r="K3">
-        <v>1.039406694377715</v>
+        <v>1.039406694377714</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.037725578089117</v>
+        <v>1.037725578089115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016601934446271</v>
+        <v>1.016601934446273</v>
       </c>
       <c r="D4">
-        <v>1.032754457236835</v>
+        <v>1.032754457236837</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.03182257312978</v>
+        <v>1.031822573129782</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053113133134174</v>
+        <v>1.053113133134175</v>
       </c>
       <c r="J4">
-        <v>1.035590288378334</v>
+        <v>1.035590288378335</v>
       </c>
       <c r="K4">
-        <v>1.042473005658319</v>
+        <v>1.04247300565832</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.041551518859071</v>
+        <v>1.041551518859072</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018494965286712</v>
+        <v>1.018494965286711</v>
       </c>
       <c r="D5">
-        <v>1.034250566229584</v>
+        <v>1.034250566229583</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.033637855547434</v>
+        <v>1.033637855547433</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.053834395981646</v>
       </c>
       <c r="J5">
-        <v>1.036994345185279</v>
+        <v>1.036994345185278</v>
       </c>
       <c r="K5">
-        <v>1.043737779248088</v>
+        <v>1.043737779248087</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
         <v>1.043131708462539</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018810901413222</v>
+        <v>1.018810901413223</v>
       </c>
       <c r="D6">
-        <v>1.034500276682694</v>
+        <v>1.034500276682695</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.033940910849126</v>
+        <v>1.033940910849127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053954561537963</v>
+        <v>1.053954561537964</v>
       </c>
       <c r="J6">
-        <v>1.037228580613249</v>
+        <v>1.03722858061325</v>
       </c>
       <c r="K6">
-        <v>1.04394875142691</v>
+        <v>1.043948751426912</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.04339541753944</v>
+        <v>1.043395417539441</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.016627358504844</v>
       </c>
       <c r="D7">
-        <v>1.032774549204009</v>
+        <v>1.032774549204008</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
         <v>1.031846946564215</v>
@@ -629,16 +629,16 @@
         <v>1.053122833983664</v>
       </c>
       <c r="J7">
-        <v>1.035609151621004</v>
+        <v>1.035609151621003</v>
       </c>
       <c r="K7">
-        <v>1.042489999458862</v>
+        <v>1.042489999458861</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.041572742360105</v>
+        <v>1.041572742360104</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007210518718546</v>
+        <v>1.007210518718547</v>
       </c>
       <c r="D8">
-        <v>1.025335503520314</v>
+        <v>1.025335503520315</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.022831026839461</v>
+        <v>1.022831026839462</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1.049505282293205</v>
       </c>
       <c r="J8">
-        <v>1.028611606871755</v>
+        <v>1.028611606871756</v>
       </c>
       <c r="K8">
         <v>1.036182886039521</v>
@@ -676,7 +676,7 @@
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.033710369177189</v>
+        <v>1.03371036917719</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9893797447554207</v>
+        <v>0.989379744755422</v>
       </c>
       <c r="D9">
-        <v>1.011270369423429</v>
+        <v>1.01127036942343</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>1.005821938339873</v>
+        <v>1.005821938339874</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042540759636507</v>
+        <v>1.042540759636508</v>
       </c>
       <c r="J9">
-        <v>1.015313187354851</v>
+        <v>1.015313187354852</v>
       </c>
       <c r="K9">
-        <v>1.024183201408638</v>
+        <v>1.024183201408639</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.018821259613839</v>
+        <v>1.018821259613841</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.976502104837445</v>
+        <v>0.9765021048374448</v>
       </c>
       <c r="D10">
-        <v>1.001134608281471</v>
+        <v>1.00113460828147</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9935868557197143</v>
+        <v>0.9935868557197137</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>1.005680061444469</v>
       </c>
       <c r="K10">
-        <v>1.01548340719888</v>
+        <v>1.015483407198879</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
         <v>1.008072874996855</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9706489340286663</v>
+        <v>0.9706489340286683</v>
       </c>
       <c r="D11">
-        <v>0.9965350819931696</v>
+        <v>0.996535081993172</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9880391013541406</v>
+        <v>0.9880391013541422</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035101027359965</v>
+        <v>1.035101027359966</v>
       </c>
       <c r="J11">
-        <v>1.001295864524484</v>
+        <v>1.001295864524486</v>
       </c>
       <c r="K11">
-        <v>1.011522638754777</v>
+        <v>1.011522638754778</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.003190163624933</v>
+        <v>1.003190163624935</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9684289816271228</v>
+        <v>0.9684289816271204</v>
       </c>
       <c r="D12">
-        <v>0.9947919192315886</v>
+        <v>0.9947919192315865</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9859371573640321</v>
+        <v>0.9859371573640291</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034212654767916</v>
+        <v>1.034212654767914</v>
       </c>
       <c r="J12">
-        <v>0.9996323027997337</v>
+        <v>0.9996323027997314</v>
       </c>
       <c r="K12">
-        <v>1.010019582698483</v>
+        <v>1.010019582698481</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.001338831311519</v>
+        <v>1.001338831311517</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689073165431418</v>
+        <v>0.9689073165431423</v>
       </c>
       <c r="D13">
-        <v>0.9951674570305441</v>
+        <v>0.9951674570305444</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9863899640532524</v>
+        <v>0.9863899640532527</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.034404177369378</v>
       </c>
       <c r="J13">
-        <v>0.9999907838265651</v>
+        <v>0.9999907838265656</v>
       </c>
       <c r="K13">
         <v>1.010343482977177</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.001737711919679</v>
+        <v>1.00173771191968</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.970466393274076</v>
+        <v>0.9704663932740748</v>
       </c>
       <c r="D14">
-        <v>0.996391718464844</v>
+        <v>0.9963917184648429</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9878662190817195</v>
+        <v>0.9878662190817183</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035028025852719</v>
+        <v>1.035028025852718</v>
       </c>
       <c r="J14">
-        <v>1.001159088860229</v>
+        <v>1.001159088860227</v>
       </c>
       <c r="K14">
-        <v>1.011399062677647</v>
+        <v>1.011399062677646</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.003037921431433</v>
+        <v>1.003037921431432</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9714207840673165</v>
+        <v>0.9714207840673177</v>
       </c>
       <c r="D15">
-        <v>0.9971413308720836</v>
+        <v>0.9971413308720846</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9887702009773046</v>
+        <v>0.9887702009773055</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.035409609977763</v>
       </c>
       <c r="J15">
-        <v>1.001874172916839</v>
+        <v>1.00187417291684</v>
       </c>
       <c r="K15">
-        <v>1.012045130942102</v>
+        <v>1.012045130942103</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.003833923400069</v>
+        <v>1.003833923400071</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768843779191078</v>
+        <v>0.9768843779191084</v>
       </c>
       <c r="D16">
         <v>1.001435174717367</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9939494712577223</v>
+        <v>0.9939494712577234</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.03758936809284</v>
       </c>
       <c r="J16">
-        <v>1.005966285682379</v>
+        <v>1.00596628568238</v>
       </c>
       <c r="K16">
-        <v>1.015741963191812</v>
+        <v>1.015741963191813</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.008391834194735</v>
+        <v>1.008391834194736</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9802345825020364</v>
+        <v>0.9802345825020372</v>
       </c>
       <c r="D17">
         <v>1.004070165139272</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9971289205631284</v>
+        <v>0.9971289205631287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038921770209516</v>
+        <v>1.038921770209517</v>
       </c>
       <c r="J17">
         <v>1.008474094184108</v>
       </c>
       <c r="K17">
-        <v>1.018007204002464</v>
+        <v>1.018007204002465</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.011187478171397</v>
+        <v>1.011187478171398</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9821622798315298</v>
+        <v>0.9821622798315289</v>
       </c>
       <c r="D18">
         <v>1.005587009623633</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.998959606114054</v>
+        <v>0.998959606114053</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039686887297544</v>
+        <v>1.039686887297543</v>
       </c>
       <c r="J18">
-        <v>1.009916534947364</v>
+        <v>1.009916534947363</v>
       </c>
       <c r="K18">
-        <v>1.019309995882284</v>
+        <v>1.019309995882283</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.012796322309553</v>
+        <v>1.012796322309552</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9828152115837322</v>
+        <v>0.9828152115837303</v>
       </c>
       <c r="D19">
-        <v>1.006100890688156</v>
+        <v>1.006100890688155</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9995798847897658</v>
+        <v>0.9995798847897639</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039945775890357</v>
+        <v>1.039945775890356</v>
       </c>
       <c r="J19">
-        <v>1.010405009742201</v>
+        <v>1.010405009742199</v>
       </c>
       <c r="K19">
-        <v>1.019751156360756</v>
+        <v>1.019751156360755</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.013341291521194</v>
+        <v>1.013341291521192</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9798778985064303</v>
+        <v>0.979877898506432</v>
       </c>
       <c r="D20">
-        <v>1.003789555392381</v>
+        <v>1.003789555392383</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9967902861969041</v>
+        <v>0.996790286196906</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038780073941098</v>
+        <v>1.038780073941099</v>
       </c>
       <c r="J20">
-        <v>1.008207152897372</v>
+        <v>1.008207152897373</v>
       </c>
       <c r="K20">
-        <v>1.017766095731995</v>
+        <v>1.017766095731997</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.010889810331648</v>
+        <v>1.01088981033165</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9700085857181899</v>
+        <v>0.9700085857181886</v>
       </c>
       <c r="D21">
-        <v>0.9960321882693355</v>
+        <v>0.9960321882693342</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9874326702567354</v>
+        <v>0.9874326702567344</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034844902522993</v>
+        <v>1.034844902522992</v>
       </c>
       <c r="J21">
-        <v>1.000816047287823</v>
+        <v>1.000816047287822</v>
       </c>
       <c r="K21">
-        <v>1.011089123999389</v>
+        <v>1.011089123999388</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.002656111284731</v>
+        <v>1.00265611128473</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9635356930754233</v>
+        <v>0.9635356930754214</v>
       </c>
       <c r="D22">
-        <v>0.9909522621523644</v>
+        <v>0.9909522621523624</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9813081992745564</v>
+        <v>0.9813081992745544</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032250264321733</v>
+        <v>1.032250264321732</v>
       </c>
       <c r="J22">
-        <v>0.9959641713919346</v>
+        <v>0.9959641713919329</v>
       </c>
       <c r="K22">
-        <v>1.006705112845193</v>
+        <v>1.006705112845191</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.997259266667728</v>
+        <v>0.9972592666677261</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9669940320291754</v>
+        <v>0.966994032029176</v>
       </c>
       <c r="D23">
-        <v>0.9936655590261174</v>
+        <v>0.993665559026118</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9845791217941788</v>
+        <v>0.9845791217941791</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>1.033637773297307</v>
       </c>
       <c r="J23">
-        <v>0.9985567998954066</v>
+        <v>0.9985567998954071</v>
       </c>
       <c r="K23">
-        <v>1.009047807357196</v>
+        <v>1.009047807357197</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
         <v>1.000142328798928</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9800391499867678</v>
+        <v>0.9800391499867677</v>
       </c>
       <c r="D24">
         <v>1.003916412750837</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9969433738679717</v>
+        <v>0.9969433738679715</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1.017875099100951</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
         <v>1.01102438076111</v>
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9941512008333862</v>
+        <v>0.9941512008333878</v>
       </c>
       <c r="D25">
-        <v>1.015030995933309</v>
+        <v>1.015030995933311</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.010365678206071</v>
+        <v>1.010365678206073</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044417289084479</v>
+        <v>1.04441728908448</v>
       </c>
       <c r="J25">
-        <v>1.018877016452597</v>
+        <v>1.018877016452599</v>
       </c>
       <c r="K25">
-        <v>1.027400371535281</v>
+        <v>1.027400371535283</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.022805183589978</v>
+        <v>1.022805183589979</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004707484147827</v>
+        <v>1.00472054641938</v>
       </c>
       <c r="D2">
-        <v>1.023359275551882</v>
+        <v>1.023370043982288</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.020438466166122</v>
+        <v>1.020449548644135</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048536040047531</v>
+        <v>1.048542310689784</v>
       </c>
       <c r="J2">
-        <v>1.026748301077765</v>
+        <v>1.026760977677428</v>
       </c>
       <c r="K2">
-        <v>1.034502495049443</v>
+        <v>1.03451312192613</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.031620218816401</v>
+        <v>1.031631154564367</v>
+      </c>
+      <c r="N2">
+        <v>1.018506209041077</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012019217172845</v>
+        <v>1.012025862542872</v>
       </c>
       <c r="D3">
-        <v>1.029133490766831</v>
+        <v>1.029138976656998</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.027432064763403</v>
+        <v>1.027437699813671</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051358538358436</v>
+        <v>1.051361736476835</v>
       </c>
       <c r="J3">
-        <v>1.032187503886513</v>
+        <v>1.032193973888325</v>
       </c>
       <c r="K3">
-        <v>1.039406694377714</v>
+        <v>1.039412114918123</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.037725578089115</v>
+        <v>1.037731145736785</v>
+      </c>
+      <c r="N3">
+        <v>1.022414444577286</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016601934446273</v>
+        <v>1.016604642580107</v>
       </c>
       <c r="D4">
-        <v>1.032754457236837</v>
+        <v>1.032756694708623</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.031822573129782</v>
+        <v>1.031824868739373</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053113133134175</v>
+        <v>1.053114438455304</v>
       </c>
       <c r="J4">
-        <v>1.035590288378335</v>
+        <v>1.035592930248032</v>
       </c>
       <c r="K4">
-        <v>1.04247300565832</v>
+        <v>1.042475218193753</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.041551518859072</v>
+        <v>1.041553788827466</v>
+      </c>
+      <c r="N4">
+        <v>1.024854999700085</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018494965286711</v>
+        <v>1.01849606509626</v>
       </c>
       <c r="D5">
-        <v>1.034250566229583</v>
+        <v>1.034251475201784</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.033637855547433</v>
+        <v>1.033638787691553</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053834395981646</v>
+        <v>1.053834926427522</v>
       </c>
       <c r="J5">
-        <v>1.036994345185278</v>
+        <v>1.036995418945725</v>
       </c>
       <c r="K5">
-        <v>1.043737779248087</v>
+        <v>1.043738678376997</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.043131708462539</v>
+        <v>1.043132630497753</v>
+      </c>
+      <c r="N5">
+        <v>1.025860938112155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018810901413223</v>
+        <v>1.018811733804985</v>
       </c>
       <c r="D6">
-        <v>1.034500276682695</v>
+        <v>1.034500964677313</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.033940910849127</v>
+        <v>1.033941616326268</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053954561537964</v>
+        <v>1.053954963048942</v>
       </c>
       <c r="J6">
-        <v>1.03722858061325</v>
+        <v>1.03722939339809</v>
       </c>
       <c r="K6">
-        <v>1.043948751426912</v>
+        <v>1.043949432007433</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.043395417539441</v>
+        <v>1.043396115403999</v>
+      </c>
+      <c r="N6">
+        <v>1.026028692237591</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016627358504844</v>
+        <v>1.016630044969553</v>
       </c>
       <c r="D7">
-        <v>1.032774549204008</v>
+        <v>1.032776768782726</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.031846946564215</v>
+        <v>1.031849223801104</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053122833983664</v>
+        <v>1.053124128871349</v>
       </c>
       <c r="J7">
-        <v>1.035609151621003</v>
+        <v>1.03561177238016</v>
       </c>
       <c r="K7">
-        <v>1.042489999458861</v>
+        <v>1.042492194310065</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.041572742360104</v>
+        <v>1.041574994170969</v>
+      </c>
+      <c r="N7">
+        <v>1.024868518607406</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007210518718547</v>
+        <v>1.007221364938268</v>
       </c>
       <c r="D8">
-        <v>1.025335503520315</v>
+        <v>1.025344449304859</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.022831026839462</v>
+        <v>1.022840227409442</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049505282293205</v>
+        <v>1.049510493564432</v>
       </c>
       <c r="J8">
-        <v>1.028611606871756</v>
+        <v>1.028622144601049</v>
       </c>
       <c r="K8">
-        <v>1.036182886039521</v>
+        <v>1.03619171801573</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.03371036917719</v>
+        <v>1.033719451980026</v>
+      </c>
+      <c r="N8">
+        <v>1.019845983846612</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.989379744755422</v>
+        <v>0.9894068547567678</v>
       </c>
       <c r="D9">
-        <v>1.01127036942343</v>
+        <v>1.011292650214257</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>1.005821938339874</v>
+        <v>1.005844965633322</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042540759636508</v>
+        <v>1.042553704650698</v>
       </c>
       <c r="J9">
-        <v>1.015313187354852</v>
+        <v>1.015339310984056</v>
       </c>
       <c r="K9">
-        <v>1.024183201408639</v>
+        <v>1.024205130959586</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.018821259613841</v>
+        <v>1.018843918840626</v>
+      </c>
+      <c r="N9">
+        <v>1.010265324320557</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9765021048374448</v>
+        <v>0.9765417261680743</v>
       </c>
       <c r="D10">
-        <v>1.00113460828147</v>
+        <v>1.001167080577301</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9935868557197137</v>
+        <v>0.9936205415093254</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037437126052026</v>
+        <v>1.03745595748852</v>
       </c>
       <c r="J10">
-        <v>1.005680061444469</v>
+        <v>1.005718001009396</v>
       </c>
       <c r="K10">
-        <v>1.015483407198879</v>
+        <v>1.015515294947872</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.008072874996855</v>
+        <v>1.008105942336325</v>
+      </c>
+      <c r="N10">
+        <v>1.003302121637541</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9706489340286683</v>
+        <v>0.9706944835325394</v>
       </c>
       <c r="D11">
-        <v>0.996535081993172</v>
+        <v>0.9965723625965638</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9880391013541422</v>
+        <v>0.9880778431969338</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035101027359966</v>
+        <v>1.035122629445586</v>
       </c>
       <c r="J11">
-        <v>1.001295864524486</v>
+        <v>1.001339350957262</v>
       </c>
       <c r="K11">
-        <v>1.011522638754778</v>
+        <v>1.01155920992619</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.003190163624935</v>
+        <v>1.003228151510902</v>
+      </c>
+      <c r="N11">
+        <v>1.000127855397326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9684289816271204</v>
+        <v>0.968476822056067</v>
       </c>
       <c r="D12">
-        <v>0.9947919192315865</v>
+        <v>0.9948310544036268</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9859371573640291</v>
+        <v>0.9859778540118402</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034212654767914</v>
+        <v>1.034235324439909</v>
       </c>
       <c r="J12">
-        <v>0.9996323027997314</v>
+        <v>0.9996779240124989</v>
       </c>
       <c r="K12">
-        <v>1.010019582698481</v>
+        <v>1.010057957814004</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.001338831311517</v>
+        <v>1.001378718805901</v>
+      </c>
+      <c r="N12">
+        <v>0.9989226452699729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689073165431423</v>
+        <v>0.9689546613133823</v>
       </c>
       <c r="D13">
-        <v>0.9951674570305444</v>
+        <v>0.9952061911227137</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9863899640532527</v>
+        <v>0.9864302377231078</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034404177369378</v>
+        <v>1.034426616207644</v>
       </c>
       <c r="J13">
-        <v>0.9999907838265656</v>
+        <v>1.000035943576615</v>
       </c>
       <c r="K13">
-        <v>1.010343482977177</v>
+        <v>1.010381468075631</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.00173771191968</v>
+        <v>1.001777188510711</v>
+      </c>
+      <c r="N13">
+        <v>0.9991823894179059</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9704663932740748</v>
+        <v>0.9705121302528645</v>
       </c>
       <c r="D14">
-        <v>0.9963917184648429</v>
+        <v>0.9964291509097388</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9878662190817183</v>
+        <v>0.9879051208750131</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035028025852718</v>
+        <v>1.035049715367937</v>
       </c>
       <c r="J14">
-        <v>1.001159088860227</v>
+        <v>1.001202750173189</v>
       </c>
       <c r="K14">
-        <v>1.011399062677646</v>
+        <v>1.011435781596601</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.003037921431432</v>
+        <v>1.003076064809764</v>
+      </c>
+      <c r="N14">
+        <v>1.000028779766411</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9714207840673177</v>
+        <v>0.9714655426245683</v>
       </c>
       <c r="D15">
-        <v>0.9971413308720846</v>
+        <v>0.9971779707167449</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9887702009773055</v>
+        <v>0.9888082680342893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035409609977763</v>
+        <v>1.035430843074614</v>
       </c>
       <c r="J15">
-        <v>1.00187417291684</v>
+        <v>1.001916921179069</v>
       </c>
       <c r="K15">
-        <v>1.012045130942103</v>
+        <v>1.012081078530501</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.003833923400071</v>
+        <v>1.003871255193013</v>
+      </c>
+      <c r="N15">
+        <v>1.000546732007734</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768843779191084</v>
+        <v>0.9769236175647426</v>
       </c>
       <c r="D16">
-        <v>1.001435174717367</v>
+        <v>1.001467336972933</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9939494712577234</v>
+        <v>0.9939828316346881</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03758936809284</v>
+        <v>1.037608020738702</v>
       </c>
       <c r="J16">
-        <v>1.00596628568238</v>
+        <v>1.006003866980685</v>
       </c>
       <c r="K16">
-        <v>1.015741963191813</v>
+        <v>1.015773548633367</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.008391834194736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.008424584480066</v>
+      </c>
+      <c r="N16">
+        <v>1.003509250160455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9802345825020372</v>
+        <v>0.9802705049054262</v>
       </c>
       <c r="D17">
-        <v>1.004070165139272</v>
+        <v>1.004099630496077</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9971289205631287</v>
+        <v>0.9971594534071859</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038921770209517</v>
+        <v>1.038938866908137</v>
       </c>
       <c r="J17">
-        <v>1.008474094184108</v>
+        <v>1.008508555962628</v>
       </c>
       <c r="K17">
-        <v>1.018007204002465</v>
+        <v>1.018036158150624</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.011187478171398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.011217471680073</v>
+      </c>
+      <c r="N17">
+        <v>1.005323465035445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9821622798315289</v>
+        <v>0.9821963156771892</v>
       </c>
       <c r="D18">
-        <v>1.005587009623633</v>
+        <v>1.005614939364581</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.998959606114053</v>
+        <v>0.9989885314320192</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039686887297543</v>
+        <v>1.039703097444859</v>
       </c>
       <c r="J18">
-        <v>1.009916534947363</v>
+        <v>1.009949217951035</v>
       </c>
       <c r="K18">
-        <v>1.019309995882283</v>
+        <v>1.019337450429184</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.012796322309552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.01282474701118</v>
+      </c>
+      <c r="N18">
+        <v>1.006366476092444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9828152115837303</v>
+        <v>0.9828486120270401</v>
       </c>
       <c r="D19">
-        <v>1.006100890688155</v>
+        <v>1.006128302923724</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9995798847897639</v>
+        <v>0.9996082687729769</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039945775890356</v>
+        <v>1.039961687169467</v>
       </c>
       <c r="J19">
-        <v>1.010405009742199</v>
+        <v>1.010437092881089</v>
       </c>
       <c r="K19">
-        <v>1.019751156360755</v>
+        <v>1.01977810531806</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.013341291521192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.013369187678815</v>
+      </c>
+      <c r="N19">
+        <v>1.00671960245218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.979877898506432</v>
+        <v>0.9799141717384572</v>
       </c>
       <c r="D20">
-        <v>1.003789555392383</v>
+        <v>1.003819306167707</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.996790286196906</v>
+        <v>0.9968211180229644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038780073941099</v>
+        <v>1.038797335371405</v>
       </c>
       <c r="J20">
-        <v>1.008207152897373</v>
+        <v>1.008241945087298</v>
       </c>
       <c r="K20">
-        <v>1.017766095731997</v>
+        <v>1.017795328497056</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.01088981033165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.010920095499997</v>
+      </c>
+      <c r="N20">
+        <v>1.005130403280122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9700085857181886</v>
+        <v>0.9700547935860278</v>
       </c>
       <c r="D21">
-        <v>0.9960321882693342</v>
+        <v>0.9960700020421143</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9874326702567344</v>
+        <v>0.9874719738194162</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034844902522992</v>
+        <v>1.034866811587798</v>
       </c>
       <c r="J21">
-        <v>1.000816047287822</v>
+        <v>1.000860147710864</v>
       </c>
       <c r="K21">
-        <v>1.011089123999388</v>
+        <v>1.011126213924718</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.00265611128473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.002694645188412</v>
+      </c>
+      <c r="N21">
+        <v>0.9997802801874294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9635356930754214</v>
+        <v>0.9635886697758251</v>
       </c>
       <c r="D22">
-        <v>0.9909522621523624</v>
+        <v>0.9909955479913224</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9813081992745544</v>
+        <v>0.9813532803323304</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032250264321732</v>
+        <v>1.032275321280699</v>
       </c>
       <c r="J22">
-        <v>0.9959641713919329</v>
+        <v>0.9960145611846505</v>
       </c>
       <c r="K22">
-        <v>1.006705112845191</v>
+        <v>1.006747520477517</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9972592666677261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9973034091873535</v>
+      </c>
+      <c r="N22">
+        <v>0.9962638237513203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.966994032029176</v>
+        <v>0.9670433661601425</v>
       </c>
       <c r="D23">
-        <v>0.993665559026118</v>
+        <v>0.9937059023125755</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9845791217941791</v>
+        <v>0.9846210932509202</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033637773297307</v>
+        <v>1.033661138115174</v>
       </c>
       <c r="J23">
-        <v>0.9985567998954071</v>
+        <v>0.9986038103840112</v>
       </c>
       <c r="K23">
-        <v>1.009047807357197</v>
+        <v>1.009087356884969</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.000142328798928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.000183454274667</v>
+      </c>
+      <c r="N23">
+        <v>0.9981432619886957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9800391499867677</v>
+        <v>0.9800752645459777</v>
       </c>
       <c r="D24">
-        <v>1.003916412750837</v>
+        <v>1.003946034442801</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9969433738679715</v>
+        <v>0.996974070468771</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038844137500591</v>
+        <v>1.038861324431205</v>
       </c>
       <c r="J24">
-        <v>1.008327834746272</v>
+        <v>1.008362477512185</v>
       </c>
       <c r="K24">
-        <v>1.017875099100951</v>
+        <v>1.017904205862921</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.01102438076111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.011054534020671</v>
+      </c>
+      <c r="N24">
+        <v>1.005217686352535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9941512008333878</v>
+        <v>0.9941738456485031</v>
       </c>
       <c r="D25">
-        <v>1.015030995933311</v>
+        <v>1.015049625285111</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.010365678206073</v>
+        <v>1.010384905993264</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04441728908448</v>
+        <v>1.04442812018754</v>
       </c>
       <c r="J25">
-        <v>1.018877016452599</v>
+        <v>1.018898886640164</v>
       </c>
       <c r="K25">
-        <v>1.027400371535283</v>
+        <v>1.02741872249172</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.022805183589979</v>
+        <v>1.022824120649087</v>
+      </c>
+      <c r="N25">
+        <v>1.012836844671198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00472054641938</v>
+        <v>0.9933077648536556</v>
       </c>
       <c r="D2">
-        <v>1.023370043982288</v>
+        <v>1.012269857934093</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.012368854745159</v>
       </c>
       <c r="F2">
-        <v>1.020449548644135</v>
+        <v>1.017895128870822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048542310689784</v>
+        <v>1.040277096784749</v>
       </c>
       <c r="J2">
-        <v>1.026760977677428</v>
+        <v>1.01569049873833</v>
       </c>
       <c r="K2">
-        <v>1.03451312192613</v>
+        <v>1.023560860302933</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.023658519827127</v>
       </c>
       <c r="M2">
-        <v>1.031631154564367</v>
+        <v>1.029110660947458</v>
       </c>
       <c r="N2">
-        <v>1.018506209041077</v>
+        <v>1.017132895747866</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012025862542872</v>
+        <v>1.000094232589872</v>
       </c>
       <c r="D3">
-        <v>1.029138976656998</v>
+        <v>1.017317643002626</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.018210642766184</v>
       </c>
       <c r="F3">
-        <v>1.027437699813671</v>
+        <v>1.024135118557157</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051361736476835</v>
+        <v>1.042116256599388</v>
       </c>
       <c r="J3">
-        <v>1.032193973888325</v>
+        <v>1.020582329059478</v>
       </c>
       <c r="K3">
-        <v>1.039412114918123</v>
+        <v>1.027733634495636</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.028615698936348</v>
       </c>
       <c r="M3">
-        <v>1.037731145736785</v>
+        <v>1.034468225538941</v>
       </c>
       <c r="N3">
-        <v>1.022414444577286</v>
+        <v>1.022031673029171</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016604642580107</v>
+        <v>1.004361201738857</v>
       </c>
       <c r="D4">
-        <v>1.032756694708623</v>
+        <v>1.020493697447602</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.021899271445506</v>
       </c>
       <c r="F4">
-        <v>1.031824868739373</v>
+        <v>1.028072246377878</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053114438455304</v>
+        <v>1.043260761660943</v>
       </c>
       <c r="J4">
-        <v>1.035592930248032</v>
+        <v>1.023654001644919</v>
       </c>
       <c r="K4">
-        <v>1.042475218193753</v>
+        <v>1.030350916920354</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.031740385302495</v>
       </c>
       <c r="M4">
-        <v>1.041553788827466</v>
+        <v>1.037843270364712</v>
       </c>
       <c r="N4">
-        <v>1.024854999700085</v>
+        <v>1.02510770774201</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01849606509626</v>
+        <v>1.006126802799431</v>
       </c>
       <c r="D5">
-        <v>1.034251475201784</v>
+        <v>1.02180833325348</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.023429183370297</v>
       </c>
       <c r="F5">
-        <v>1.033638787691553</v>
+        <v>1.029704545788452</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053834926427522</v>
+        <v>1.043731427341821</v>
       </c>
       <c r="J5">
-        <v>1.036995418945725</v>
+        <v>1.024923971902711</v>
       </c>
       <c r="K5">
-        <v>1.043738678376997</v>
+        <v>1.031432301962075</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.033035105240742</v>
       </c>
       <c r="M5">
-        <v>1.043132630497753</v>
+        <v>1.039241254719414</v>
       </c>
       <c r="N5">
-        <v>1.025860938112155</v>
+        <v>1.026379481503236</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018811733804985</v>
+        <v>1.006421641761776</v>
       </c>
       <c r="D6">
-        <v>1.034500964677313</v>
+        <v>1.022027887870011</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.023684873653628</v>
       </c>
       <c r="F6">
-        <v>1.033941616326268</v>
+        <v>1.029977308415505</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053954963048942</v>
+        <v>1.043809851046302</v>
       </c>
       <c r="J6">
-        <v>1.03722939339809</v>
+        <v>1.025135982316416</v>
       </c>
       <c r="K6">
-        <v>1.043949432007433</v>
+        <v>1.03161278660607</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.033251412775364</v>
       </c>
       <c r="M6">
-        <v>1.043396115403999</v>
+        <v>1.039474787109841</v>
       </c>
       <c r="N6">
-        <v>1.026028692237591</v>
+        <v>1.026591792996046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016630044969553</v>
+        <v>1.004384902783284</v>
       </c>
       <c r="D7">
-        <v>1.032776768782726</v>
+        <v>1.020511343242094</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.021919794496246</v>
       </c>
       <c r="F7">
-        <v>1.031849223801104</v>
+        <v>1.02809414557249</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053124128871349</v>
+        <v>1.043267091380252</v>
       </c>
       <c r="J7">
-        <v>1.03561177238016</v>
+        <v>1.023671053635928</v>
       </c>
       <c r="K7">
-        <v>1.042492194310065</v>
+        <v>1.030365439647263</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.031757758455016</v>
       </c>
       <c r="M7">
-        <v>1.041574994170969</v>
+        <v>1.037862031018754</v>
       </c>
       <c r="N7">
-        <v>1.024868518607406</v>
+        <v>1.025124783948802</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007221364938268</v>
+        <v>0.9956279873904832</v>
       </c>
       <c r="D8">
-        <v>1.025344449304859</v>
+        <v>1.013995093834875</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.014362723169921</v>
       </c>
       <c r="F8">
-        <v>1.022840227409442</v>
+        <v>1.020025539459743</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049510493564432</v>
+        <v>1.040908345962814</v>
       </c>
       <c r="J8">
-        <v>1.028622144601049</v>
+        <v>1.017363777066916</v>
       </c>
       <c r="K8">
-        <v>1.03619171801573</v>
+        <v>1.024988771813268</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.025351594332056</v>
       </c>
       <c r="M8">
-        <v>1.033719451980026</v>
+        <v>1.030940915924423</v>
       </c>
       <c r="N8">
-        <v>1.019845983846612</v>
+        <v>1.018808550323607</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9894068547567678</v>
+        <v>0.9791692982569907</v>
       </c>
       <c r="D9">
-        <v>1.011292650214257</v>
+        <v>1.001771752531965</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>1.000292525998306</v>
       </c>
       <c r="F9">
-        <v>1.005844965633322</v>
+        <v>1.004978190856285</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042553704650698</v>
+        <v>1.036382265924066</v>
       </c>
       <c r="J9">
-        <v>1.015339310984056</v>
+        <v>1.005479711475881</v>
       </c>
       <c r="K9">
-        <v>1.024205130959586</v>
+        <v>1.014836149542722</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>1.013380858954267</v>
       </c>
       <c r="M9">
-        <v>1.018843918840626</v>
+        <v>1.017991013446926</v>
       </c>
       <c r="N9">
-        <v>1.010265324320557</v>
+        <v>1.006907607996312</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9765417261680743</v>
+        <v>0.9673877177281234</v>
       </c>
       <c r="D10">
-        <v>1.001167080577301</v>
+        <v>0.9930469762687115</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9903226055409677</v>
       </c>
       <c r="F10">
-        <v>0.9936205415093254</v>
+        <v>0.9942971480802414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03745595748852</v>
+        <v>1.033084027458165</v>
       </c>
       <c r="J10">
-        <v>1.005718001009396</v>
+        <v>0.9969577788669319</v>
       </c>
       <c r="K10">
-        <v>1.015515294947872</v>
+        <v>1.007542914855079</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.004868814640617</v>
       </c>
       <c r="M10">
-        <v>1.008105942336325</v>
+        <v>1.008770138387967</v>
       </c>
       <c r="N10">
-        <v>1.003302121637541</v>
+        <v>0.9983735732655785</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9706944835325394</v>
+        <v>0.9620636945708007</v>
       </c>
       <c r="D11">
-        <v>0.9965723625965638</v>
+        <v>0.9891124415142</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9858443506497367</v>
       </c>
       <c r="F11">
-        <v>0.9880778431969338</v>
+        <v>0.9894945292456446</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035122629445586</v>
+        <v>1.03158091572513</v>
       </c>
       <c r="J11">
-        <v>1.001339350957262</v>
+        <v>0.9931044946532478</v>
       </c>
       <c r="K11">
-        <v>1.01155920992619</v>
+        <v>1.004242644102329</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.00103825204347</v>
       </c>
       <c r="M11">
-        <v>1.003228151510902</v>
+        <v>1.004617320517721</v>
       </c>
       <c r="N11">
-        <v>1.000127855397326</v>
+        <v>0.9945148169463331</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.968476822056067</v>
+        <v>0.9600497016952687</v>
       </c>
       <c r="D12">
-        <v>0.9948310544036268</v>
+        <v>0.9876255006623892</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.984154648251142</v>
       </c>
       <c r="F12">
-        <v>0.9859778540118402</v>
+        <v>0.9876816489941801</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034235324439909</v>
+        <v>1.031010523349702</v>
       </c>
       <c r="J12">
-        <v>0.9996779240124989</v>
+        <v>0.9916466391585214</v>
       </c>
       <c r="K12">
-        <v>1.010057957814004</v>
+        <v>1.002993679603514</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9995918493914543</v>
       </c>
       <c r="M12">
-        <v>1.001378718805901</v>
+        <v>1.003048716594602</v>
       </c>
       <c r="N12">
-        <v>0.9989226452699729</v>
+        <v>0.9930548911295859</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689546613133823</v>
+        <v>0.9604834096869159</v>
       </c>
       <c r="D13">
-        <v>0.9952061911227137</v>
+        <v>0.9879456412688031</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9845183199835179</v>
       </c>
       <c r="F13">
-        <v>0.9864302377231078</v>
+        <v>0.9880718686465769</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034426616207644</v>
+        <v>1.031133434669876</v>
       </c>
       <c r="J13">
-        <v>1.000035943576615</v>
+        <v>0.9919605922701787</v>
       </c>
       <c r="K13">
-        <v>1.010381468075631</v>
+        <v>1.003262661871373</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9999032051755379</v>
       </c>
       <c r="M13">
-        <v>1.001777188510711</v>
+        <v>1.003386401617163</v>
       </c>
       <c r="N13">
-        <v>0.9991823894179059</v>
+        <v>0.9933692900906729</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9705121302528645</v>
+        <v>0.9618979786642804</v>
       </c>
       <c r="D14">
-        <v>0.9964291509097388</v>
+        <v>0.9889900623566236</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9857052281535861</v>
       </c>
       <c r="F14">
-        <v>0.9879051208750131</v>
+        <v>0.9893452811982583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035049715367937</v>
+        <v>1.031534018150896</v>
       </c>
       <c r="J14">
-        <v>1.001202750173189</v>
+        <v>0.992984542701409</v>
       </c>
       <c r="K14">
-        <v>1.011435781596601</v>
+        <v>1.004139886186951</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.000919183784975</v>
       </c>
       <c r="M14">
-        <v>1.003076064809764</v>
+        <v>1.004488203327027</v>
       </c>
       <c r="N14">
-        <v>1.000028779766411</v>
+        <v>0.994394694648964</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9714655426245683</v>
+        <v>0.9627646207415115</v>
       </c>
       <c r="D15">
-        <v>0.9971779707167449</v>
+        <v>0.9896301263163187</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9864329736280981</v>
       </c>
       <c r="F15">
-        <v>0.9888082680342893</v>
+        <v>0.9901259606184838</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035430843074614</v>
+        <v>1.031779205677109</v>
       </c>
       <c r="J15">
-        <v>1.001916921179069</v>
+        <v>0.9936118455160958</v>
       </c>
       <c r="K15">
-        <v>1.012081078530501</v>
+        <v>1.004677257374515</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.001541982048472</v>
       </c>
       <c r="M15">
-        <v>1.003871255193013</v>
+        <v>1.005163542224892</v>
       </c>
       <c r="N15">
-        <v>1.000546732007734</v>
+        <v>0.9950228883056002</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9769236175647426</v>
+        <v>0.9677361209041083</v>
       </c>
       <c r="D16">
-        <v>1.001467336972933</v>
+        <v>0.9933046370887266</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9906162455268868</v>
       </c>
       <c r="F16">
-        <v>0.9939828316346881</v>
+        <v>0.9946119500891351</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037608020738702</v>
+        <v>1.033182137944373</v>
       </c>
       <c r="J16">
-        <v>1.006003866980685</v>
+        <v>0.9972099000021374</v>
       </c>
       <c r="K16">
-        <v>1.015773548633367</v>
+        <v>1.007758803181427</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>1.005119836200648</v>
       </c>
       <c r="M16">
-        <v>1.008424584480066</v>
+        <v>1.00904220764716</v>
       </c>
       <c r="N16">
-        <v>1.003509250160455</v>
+        <v>0.9986260524417144</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9802705049054262</v>
+        <v>0.9707930411427186</v>
       </c>
       <c r="D17">
-        <v>1.004099630496077</v>
+        <v>0.9955663177656306</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9931957581226802</v>
       </c>
       <c r="F17">
-        <v>0.9971594534071859</v>
+        <v>0.9973767974236338</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038938866908137</v>
+        <v>1.034041551117925</v>
       </c>
       <c r="J17">
-        <v>1.008508555962628</v>
+        <v>0.9994217895697369</v>
       </c>
       <c r="K17">
-        <v>1.018036158150624</v>
+        <v>1.009652534661292</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.007324151516533</v>
       </c>
       <c r="M17">
-        <v>1.011217471680073</v>
+        <v>1.01143097774613</v>
       </c>
       <c r="N17">
-        <v>1.005323465035445</v>
+        <v>1.000841083146208</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9821963156771892</v>
+        <v>0.9725548404905591</v>
       </c>
       <c r="D18">
-        <v>1.005614939364581</v>
+        <v>0.9968705462544263</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.994684940209653</v>
       </c>
       <c r="F18">
-        <v>0.9989885314320192</v>
+        <v>0.9989725121524616</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039703097444859</v>
+        <v>1.034535659828623</v>
       </c>
       <c r="J18">
-        <v>1.009949217951035</v>
+        <v>1.000696348608186</v>
       </c>
       <c r="K18">
-        <v>1.019337450429184</v>
+        <v>1.010743517679112</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.008596053568391</v>
       </c>
       <c r="M18">
-        <v>1.01282474701118</v>
+        <v>1.012809004975905</v>
       </c>
       <c r="N18">
-        <v>1.006366476092444</v>
+        <v>1.002117452204685</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9828486120270401</v>
+        <v>0.973152048892071</v>
       </c>
       <c r="D19">
-        <v>1.006128302923724</v>
+        <v>0.9973127704494075</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9951901588187058</v>
       </c>
       <c r="F19">
-        <v>0.9996082687729769</v>
+        <v>0.9995137957021794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039961687169467</v>
+        <v>1.034702944612866</v>
       </c>
       <c r="J19">
-        <v>1.010437092881089</v>
+        <v>1.001128352875496</v>
       </c>
       <c r="K19">
-        <v>1.01977810531806</v>
+        <v>1.011113257296841</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.009027443781036</v>
       </c>
       <c r="M19">
-        <v>1.013369187678815</v>
+        <v>1.013276338422518</v>
       </c>
       <c r="N19">
-        <v>1.00671960245218</v>
+        <v>1.002550069967606</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9799141717384572</v>
+        <v>0.970467280979355</v>
       </c>
       <c r="D20">
-        <v>1.003819306167707</v>
+        <v>0.9953252227476308</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9929206082741113</v>
       </c>
       <c r="F20">
-        <v>0.9968211180229644</v>
+        <v>0.997081926832201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038797335371405</v>
+        <v>1.033950091644666</v>
       </c>
       <c r="J20">
-        <v>1.008241945087298</v>
+        <v>0.9991861022489253</v>
       </c>
       <c r="K20">
-        <v>1.017795328497056</v>
+        <v>1.009450773577297</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.00708909306255</v>
       </c>
       <c r="M20">
-        <v>1.010920095499997</v>
+        <v>1.011176281843849</v>
       </c>
       <c r="N20">
-        <v>1.005130403280122</v>
+        <v>1.000605061122367</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9700547935860278</v>
+        <v>0.9614824543368379</v>
       </c>
       <c r="D21">
-        <v>0.9960700020421143</v>
+        <v>0.9886832265082688</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9853564564326083</v>
       </c>
       <c r="F21">
-        <v>0.9874719738194162</v>
+        <v>0.9889711124228225</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034866811587798</v>
+        <v>1.031416396461194</v>
       </c>
       <c r="J21">
-        <v>1.000860147710864</v>
+        <v>0.9926837661010934</v>
       </c>
       <c r="K21">
-        <v>1.011126213924718</v>
+        <v>1.003882217968042</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.000620669375702</v>
       </c>
       <c r="M21">
-        <v>1.002694645188412</v>
+        <v>1.004164486922032</v>
       </c>
       <c r="N21">
-        <v>0.9997802801874294</v>
+        <v>0.9940934909113763</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9635886697758251</v>
+        <v>0.9556209030964442</v>
       </c>
       <c r="D22">
-        <v>0.9909955479913224</v>
+        <v>0.9843585849351602</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9804473313137837</v>
       </c>
       <c r="F22">
-        <v>0.9813532803323304</v>
+        <v>0.9837025555135254</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032275321280699</v>
+        <v>1.02975305627818</v>
       </c>
       <c r="J22">
-        <v>0.9960145611846505</v>
+        <v>0.9884405359406865</v>
       </c>
       <c r="K22">
-        <v>1.006747520477517</v>
+        <v>1.000246402598971</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9964163429222507</v>
       </c>
       <c r="M22">
-        <v>0.9973034091873535</v>
+        <v>0.9996039322253332</v>
       </c>
       <c r="N22">
-        <v>0.9962638237513203</v>
+        <v>0.9898442348774363</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9670433661601425</v>
+        <v>0.9587494534557667</v>
       </c>
       <c r="D23">
-        <v>0.9937059023125755</v>
+        <v>0.9866659521851069</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.983065028386736</v>
       </c>
       <c r="F23">
-        <v>0.9846210932509202</v>
+        <v>0.9865123672134753</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033661138115174</v>
+        <v>1.030641784537595</v>
       </c>
       <c r="J23">
-        <v>0.9986038103840112</v>
+        <v>0.9907053916685945</v>
       </c>
       <c r="K23">
-        <v>1.009087356884969</v>
+        <v>1.002187211514884</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9986588172421521</v>
       </c>
       <c r="M23">
-        <v>1.000183454274667</v>
+        <v>1.002036705816328</v>
       </c>
       <c r="N23">
-        <v>0.9981432619886957</v>
+        <v>0.9921123069602604</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9800752645459777</v>
+        <v>0.9706145434244126</v>
       </c>
       <c r="D24">
-        <v>1.003946034442801</v>
+        <v>0.9954342093312244</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9930449840976687</v>
       </c>
       <c r="F24">
-        <v>0.996974070468771</v>
+        <v>0.9972152184456263</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038861324431205</v>
+        <v>1.033991440348829</v>
       </c>
       <c r="J24">
-        <v>1.008362477512185</v>
+        <v>0.999292647256968</v>
       </c>
       <c r="K24">
-        <v>1.017904205862921</v>
+        <v>1.009541982622124</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>1.007195348489068</v>
       </c>
       <c r="M24">
-        <v>1.011054534020671</v>
+        <v>1.011291415097974</v>
       </c>
       <c r="N24">
-        <v>1.005217686352535</v>
+        <v>1.000711757436541</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9941738456485031</v>
+        <v>0.9835574615624131</v>
       </c>
       <c r="D25">
-        <v>1.015049625285111</v>
+        <v>1.005027095968473</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.004027370807666</v>
       </c>
       <c r="F25">
-        <v>1.010384905993264</v>
+        <v>1.008975472486621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04442812018754</v>
+        <v>1.037599296709016</v>
       </c>
       <c r="J25">
-        <v>1.018898886640164</v>
+        <v>1.008651142425639</v>
       </c>
       <c r="K25">
-        <v>1.02741872249172</v>
+        <v>1.01754787079319</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.016563487092398</v>
       </c>
       <c r="M25">
-        <v>1.022824120649087</v>
+        <v>1.021436035484665</v>
       </c>
       <c r="N25">
-        <v>1.012836844671198</v>
+        <v>1.010083542741787</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9933077648536556</v>
+        <v>0.9985035429967239</v>
       </c>
       <c r="D2">
-        <v>1.012269857934093</v>
+        <v>1.019529002064314</v>
       </c>
       <c r="E2">
-        <v>1.012368854745159</v>
+        <v>1.018035286126036</v>
       </c>
       <c r="F2">
-        <v>1.017895128870822</v>
+        <v>1.024470152336907</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040277096784749</v>
+        <v>1.042659745800402</v>
       </c>
       <c r="J2">
-        <v>1.01569049873833</v>
+        <v>1.020729105146069</v>
       </c>
       <c r="K2">
-        <v>1.023560860302933</v>
+        <v>1.030722809501867</v>
       </c>
       <c r="L2">
-        <v>1.023658519827127</v>
+        <v>1.029248951182143</v>
       </c>
       <c r="M2">
-        <v>1.029110660947458</v>
+        <v>1.03559878873232</v>
       </c>
       <c r="N2">
-        <v>1.017132895747866</v>
+        <v>1.010448671740017</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000094232589872</v>
+        <v>1.003949830146761</v>
       </c>
       <c r="D3">
-        <v>1.017317643002626</v>
+        <v>1.023526062088241</v>
       </c>
       <c r="E3">
-        <v>1.018210642766184</v>
+        <v>1.022642959773051</v>
       </c>
       <c r="F3">
-        <v>1.024135118557157</v>
+        <v>1.029218864964192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042116256599388</v>
+        <v>1.043885547501043</v>
       </c>
       <c r="J3">
-        <v>1.020582329059478</v>
+        <v>1.024333394908173</v>
       </c>
       <c r="K3">
-        <v>1.027733634495636</v>
+        <v>1.033866517999194</v>
       </c>
       <c r="L3">
-        <v>1.028615698936348</v>
+        <v>1.032994090582331</v>
       </c>
       <c r="M3">
-        <v>1.034468225538941</v>
+        <v>1.039491051666958</v>
       </c>
       <c r="N3">
-        <v>1.022031673029171</v>
+        <v>1.011687490023498</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004361201738857</v>
+        <v>1.007392221009141</v>
       </c>
       <c r="D4">
-        <v>1.020493697447602</v>
+        <v>1.026055529876861</v>
       </c>
       <c r="E4">
-        <v>1.021899271445506</v>
+        <v>1.02556682441839</v>
       </c>
       <c r="F4">
-        <v>1.028072246377878</v>
+        <v>1.032228899223699</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043260761660943</v>
+        <v>1.044649207626532</v>
       </c>
       <c r="J4">
-        <v>1.023654001644919</v>
+        <v>1.02660870476701</v>
       </c>
       <c r="K4">
-        <v>1.030350916920354</v>
+        <v>1.035849337951158</v>
       </c>
       <c r="L4">
-        <v>1.031740385302495</v>
+        <v>1.035366170326413</v>
       </c>
       <c r="M4">
-        <v>1.037843270364712</v>
+        <v>1.041953308611567</v>
       </c>
       <c r="N4">
-        <v>1.02510770774201</v>
+        <v>1.012468940723256</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006126802799431</v>
+        <v>1.008820653325849</v>
       </c>
       <c r="D5">
-        <v>1.02180833325348</v>
+        <v>1.027105798647819</v>
       </c>
       <c r="E5">
-        <v>1.023429183370297</v>
+        <v>1.026782778306771</v>
       </c>
       <c r="F5">
-        <v>1.029704545788452</v>
+        <v>1.033479899266239</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043731427341821</v>
+        <v>1.044963369743045</v>
       </c>
       <c r="J5">
-        <v>1.024923971902711</v>
+        <v>1.027552125981137</v>
       </c>
       <c r="K5">
-        <v>1.031432301962075</v>
+        <v>1.036671043898208</v>
       </c>
       <c r="L5">
-        <v>1.033035105240742</v>
+        <v>1.036351582981692</v>
       </c>
       <c r="M5">
-        <v>1.039241254719414</v>
+        <v>1.042975465506766</v>
       </c>
       <c r="N5">
-        <v>1.026379481503236</v>
+        <v>1.012792807850755</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006421641761776</v>
+        <v>1.009059416762717</v>
       </c>
       <c r="D6">
-        <v>1.022027887870011</v>
+        <v>1.027281388123406</v>
       </c>
       <c r="E6">
-        <v>1.023684873653628</v>
+        <v>1.026986181487674</v>
       </c>
       <c r="F6">
-        <v>1.029977308415505</v>
+        <v>1.03368911877884</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043809851046302</v>
+        <v>1.045015720651095</v>
       </c>
       <c r="J6">
-        <v>1.025135982316416</v>
+        <v>1.027709775367102</v>
       </c>
       <c r="K6">
-        <v>1.03161278660607</v>
+        <v>1.036808327727466</v>
       </c>
       <c r="L6">
-        <v>1.033251412775364</v>
+        <v>1.036516358638084</v>
       </c>
       <c r="M6">
-        <v>1.039474787109841</v>
+        <v>1.043146343292382</v>
       </c>
       <c r="N6">
-        <v>1.026591792996046</v>
+        <v>1.012846918328775</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004384902783284</v>
+        <v>1.007411380418192</v>
       </c>
       <c r="D7">
-        <v>1.020511343242094</v>
+        <v>1.026069614526434</v>
       </c>
       <c r="E7">
-        <v>1.021919794496246</v>
+        <v>1.025583123363712</v>
       </c>
       <c r="F7">
-        <v>1.02809414557249</v>
+        <v>1.032245671042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043267091380252</v>
+        <v>1.044653432274264</v>
       </c>
       <c r="J7">
-        <v>1.023671053635928</v>
+        <v>1.026621361709923</v>
       </c>
       <c r="K7">
-        <v>1.030365439647263</v>
+        <v>1.035860363726619</v>
       </c>
       <c r="L7">
-        <v>1.031757758455016</v>
+        <v>1.035379383264618</v>
       </c>
       <c r="M7">
-        <v>1.037862031018754</v>
+        <v>1.041967017064892</v>
       </c>
       <c r="N7">
-        <v>1.025124783948802</v>
+        <v>1.012473286325538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9956279873904832</v>
+        <v>1.000361568882704</v>
       </c>
       <c r="D8">
-        <v>1.013995093834875</v>
+        <v>1.020891919617942</v>
       </c>
       <c r="E8">
-        <v>1.014362723169921</v>
+        <v>1.019604741927813</v>
       </c>
       <c r="F8">
-        <v>1.020025539459743</v>
+        <v>1.026088351924009</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040908345962814</v>
+        <v>1.043080237866711</v>
       </c>
       <c r="J8">
-        <v>1.017363777066916</v>
+        <v>1.021959287992321</v>
       </c>
       <c r="K8">
-        <v>1.024988771813268</v>
+        <v>1.031796141727098</v>
       </c>
       <c r="L8">
-        <v>1.025351594332056</v>
+        <v>1.030525544575769</v>
       </c>
       <c r="M8">
-        <v>1.030940915924423</v>
+        <v>1.036926165371119</v>
       </c>
       <c r="N8">
-        <v>1.018808550323607</v>
+        <v>1.010871612606333</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9791692982569907</v>
+        <v>0.9872736822273569</v>
       </c>
       <c r="D9">
-        <v>1.001771752531965</v>
+        <v>1.011308275739384</v>
       </c>
       <c r="E9">
-        <v>1.000292525998306</v>
+        <v>1.008602348303507</v>
       </c>
       <c r="F9">
-        <v>1.004978190856285</v>
+        <v>1.014729720746314</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036382265924066</v>
+        <v>1.04007307351248</v>
       </c>
       <c r="J9">
-        <v>1.005479711475881</v>
+        <v>1.013283984541827</v>
       </c>
       <c r="K9">
-        <v>1.014836149542722</v>
+        <v>1.024220510171872</v>
       </c>
       <c r="L9">
-        <v>1.013380858954267</v>
+        <v>1.021557383336319</v>
       </c>
       <c r="M9">
-        <v>1.017991013446926</v>
+        <v>1.027588254867078</v>
       </c>
       <c r="N9">
-        <v>1.006907607996312</v>
+        <v>1.007886830326499</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9673877177281234</v>
+        <v>0.9780416087258418</v>
       </c>
       <c r="D10">
-        <v>0.9930469762687115</v>
+        <v>1.004573618960026</v>
       </c>
       <c r="E10">
-        <v>0.9903226055409677</v>
+        <v>1.000913069945622</v>
       </c>
       <c r="F10">
-        <v>0.9942971480802414</v>
+        <v>1.006772477091044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033084027458165</v>
+        <v>1.037896780537873</v>
       </c>
       <c r="J10">
-        <v>0.9969577788669319</v>
+        <v>1.007154362332934</v>
       </c>
       <c r="K10">
-        <v>1.007542914855079</v>
+        <v>1.018860783416445</v>
       </c>
       <c r="L10">
-        <v>1.004868814640617</v>
+        <v>1.015265858179021</v>
       </c>
       <c r="M10">
-        <v>1.008770138387967</v>
+        <v>1.021020519614182</v>
       </c>
       <c r="N10">
-        <v>0.9983735732655785</v>
+        <v>1.00577549177361</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9620636945708007</v>
+        <v>0.9739090242935038</v>
       </c>
       <c r="D11">
-        <v>0.9891124415142</v>
+        <v>1.001566505961851</v>
       </c>
       <c r="E11">
-        <v>0.9858443506497367</v>
+        <v>0.9974896704888918</v>
       </c>
       <c r="F11">
-        <v>0.9894945292456446</v>
+        <v>1.003225071596065</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03158091572513</v>
+        <v>1.036910394106553</v>
       </c>
       <c r="J11">
-        <v>0.9931044946532478</v>
+        <v>1.004408993649059</v>
       </c>
       <c r="K11">
-        <v>1.004242644102329</v>
+        <v>1.016458940617216</v>
       </c>
       <c r="L11">
-        <v>1.00103825204347</v>
+        <v>1.012459083732645</v>
       </c>
       <c r="M11">
-        <v>1.004617320517721</v>
+        <v>1.018086423001351</v>
       </c>
       <c r="N11">
-        <v>0.9945148169463331</v>
+        <v>1.00482940638882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9600497016952687</v>
+        <v>0.9723523203544853</v>
       </c>
       <c r="D12">
-        <v>0.9876255006623892</v>
+        <v>1.000435025042338</v>
       </c>
       <c r="E12">
-        <v>0.984154648251142</v>
+        <v>0.9962030456827168</v>
       </c>
       <c r="F12">
-        <v>0.9876816489941801</v>
+        <v>1.001891116129899</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031010523349702</v>
+        <v>1.036537076329903</v>
       </c>
       <c r="J12">
-        <v>0.9916466391585214</v>
+        <v>1.003374686946124</v>
       </c>
       <c r="K12">
-        <v>1.002993679603514</v>
+        <v>1.015553895402114</v>
       </c>
       <c r="L12">
-        <v>0.9995918493914543</v>
+        <v>1.011403352678008</v>
       </c>
       <c r="M12">
-        <v>1.003048716594602</v>
+        <v>1.016982174802674</v>
       </c>
       <c r="N12">
-        <v>0.9930548911295859</v>
+        <v>1.004472916274347</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9604834096869159</v>
+        <v>0.9726872433036188</v>
       </c>
       <c r="D13">
-        <v>0.9879456412688031</v>
+        <v>1.000678402190077</v>
       </c>
       <c r="E13">
-        <v>0.9845183199835179</v>
+        <v>0.9964797263786044</v>
       </c>
       <c r="F13">
-        <v>0.9880718686465769</v>
+        <v>1.002178008070617</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031133434669876</v>
+        <v>1.03661747318993</v>
       </c>
       <c r="J13">
-        <v>0.9919605922701787</v>
+        <v>1.003597222370747</v>
       </c>
       <c r="K13">
-        <v>1.003262661871373</v>
+        <v>1.015748626346974</v>
       </c>
       <c r="L13">
-        <v>0.9999032051755379</v>
+        <v>1.011630419701566</v>
       </c>
       <c r="M13">
-        <v>1.003386401617163</v>
+        <v>1.017219705403362</v>
       </c>
       <c r="N13">
-        <v>0.9933692900906729</v>
+        <v>1.00454961897478</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9618979786642804</v>
+        <v>0.9737807973676418</v>
       </c>
       <c r="D14">
-        <v>0.9889900623566236</v>
+        <v>1.001473278403536</v>
       </c>
       <c r="E14">
-        <v>0.9857052281535861</v>
+        <v>0.9973836296858367</v>
       </c>
       <c r="F14">
-        <v>0.9893452811982583</v>
+        <v>1.003115144755418</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031534018150896</v>
+        <v>1.036879678821569</v>
       </c>
       <c r="J14">
-        <v>0.992984542701409</v>
+        <v>1.004323799634693</v>
       </c>
       <c r="K14">
-        <v>1.004139886186951</v>
+        <v>1.016384396696227</v>
       </c>
       <c r="L14">
-        <v>1.000919183784975</v>
+        <v>1.012372090050318</v>
       </c>
       <c r="M14">
-        <v>1.004488203327027</v>
+        <v>1.017995444238454</v>
       </c>
       <c r="N14">
-        <v>0.994394694648964</v>
+        <v>1.004800044005093</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9627646207415115</v>
+        <v>0.9744516558713469</v>
       </c>
       <c r="D15">
-        <v>0.9896301263163187</v>
+        <v>1.001961079482583</v>
       </c>
       <c r="E15">
-        <v>0.9864329736280981</v>
+        <v>0.9979385351355944</v>
       </c>
       <c r="F15">
-        <v>0.9901259606184838</v>
+        <v>1.003690355945485</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031779205677109</v>
+        <v>1.03704030423845</v>
       </c>
       <c r="J15">
-        <v>0.9936118455160958</v>
+        <v>1.004769512498419</v>
       </c>
       <c r="K15">
-        <v>1.004677257374515</v>
+        <v>1.016774384723975</v>
       </c>
       <c r="L15">
-        <v>1.001541982048472</v>
+        <v>1.012827288195195</v>
       </c>
       <c r="M15">
-        <v>1.005163542224892</v>
+        <v>1.01847146888862</v>
       </c>
       <c r="N15">
-        <v>0.9950228883056002</v>
+        <v>1.004953658116167</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9677361209041083</v>
+        <v>0.9783129137909785</v>
       </c>
       <c r="D16">
-        <v>0.9933046370887266</v>
+        <v>1.004771204636088</v>
       </c>
       <c r="E16">
-        <v>0.9906162455268868</v>
+        <v>1.001138215051008</v>
       </c>
       <c r="F16">
-        <v>0.9946119500891351</v>
+        <v>1.007005678128177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033182137944373</v>
+        <v>1.037961289758461</v>
       </c>
       <c r="J16">
-        <v>0.9972099000021374</v>
+        <v>1.00733457078691</v>
       </c>
       <c r="K16">
-        <v>1.007758803181427</v>
+        <v>1.019018418395225</v>
       </c>
       <c r="L16">
-        <v>1.005119836200648</v>
+        <v>1.01545033162365</v>
       </c>
       <c r="M16">
-        <v>1.00904220764716</v>
+        <v>1.02121327500982</v>
       </c>
       <c r="N16">
-        <v>0.9986260524417144</v>
+        <v>1.005837585279369</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9707930411427186</v>
+        <v>0.9806978822675816</v>
       </c>
       <c r="D17">
-        <v>0.9955663177656306</v>
+        <v>1.006508998000046</v>
       </c>
       <c r="E17">
-        <v>0.9931957581226802</v>
+        <v>1.003119529130804</v>
       </c>
       <c r="F17">
-        <v>0.9973767974236338</v>
+        <v>1.009057348299512</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034041551117925</v>
+        <v>1.038526996307611</v>
       </c>
       <c r="J17">
-        <v>0.9994217895697369</v>
+        <v>1.008918567573215</v>
       </c>
       <c r="K17">
-        <v>1.009652534661292</v>
+        <v>1.020403855365585</v>
       </c>
       <c r="L17">
-        <v>1.007324151516533</v>
+        <v>1.017073081895686</v>
       </c>
       <c r="M17">
-        <v>1.01143097774613</v>
+        <v>1.0229084114842</v>
       </c>
       <c r="N17">
-        <v>1.000841083146208</v>
+        <v>1.006383325466149</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9725548404905591</v>
+        <v>0.9820760652564338</v>
       </c>
       <c r="D18">
-        <v>0.9968705462544263</v>
+        <v>1.007513907226636</v>
       </c>
       <c r="E18">
-        <v>0.994684940209653</v>
+        <v>1.004266202677024</v>
       </c>
       <c r="F18">
-        <v>0.9989725121524616</v>
+        <v>1.010244295024521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034535659828623</v>
+        <v>1.038852736983897</v>
       </c>
       <c r="J18">
-        <v>1.000696348608186</v>
+        <v>1.00983374778592</v>
       </c>
       <c r="K18">
-        <v>1.010743517679112</v>
+        <v>1.021204189169832</v>
       </c>
       <c r="L18">
-        <v>1.008596053568391</v>
+        <v>1.01801170000874</v>
       </c>
       <c r="M18">
-        <v>1.012809004975905</v>
+        <v>1.02388851088055</v>
       </c>
       <c r="N18">
-        <v>1.002117452204685</v>
+        <v>1.00669859278041</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.973152048892071</v>
+        <v>0.9825438373379554</v>
       </c>
       <c r="D19">
-        <v>0.9973127704494075</v>
+        <v>1.007855101226299</v>
       </c>
       <c r="E19">
-        <v>0.9951901588187058</v>
+        <v>1.004655689874176</v>
       </c>
       <c r="F19">
-        <v>0.9995137957021794</v>
+        <v>1.010647386735936</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034702944612866</v>
+        <v>1.03896309836792</v>
       </c>
       <c r="J19">
-        <v>1.001128352875496</v>
+        <v>1.010144343121944</v>
       </c>
       <c r="K19">
-        <v>1.011113257296841</v>
+        <v>1.021475785511371</v>
       </c>
       <c r="L19">
-        <v>1.009027443781036</v>
+        <v>1.018330426257977</v>
       </c>
       <c r="M19">
-        <v>1.013276338422518</v>
+        <v>1.024221257440388</v>
       </c>
       <c r="N19">
-        <v>1.002550069967606</v>
+        <v>1.00680558108561</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.970467280979355</v>
+        <v>0.9804433446620248</v>
       </c>
       <c r="D20">
-        <v>0.9953252227476308</v>
+        <v>1.006323456621248</v>
       </c>
       <c r="E20">
-        <v>0.9929206082741113</v>
+        <v>1.002907889492755</v>
       </c>
       <c r="F20">
-        <v>0.997081926832201</v>
+        <v>1.008838239669366</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033950091644666</v>
+        <v>1.03846674068661</v>
       </c>
       <c r="J20">
-        <v>0.9991861022489253</v>
+        <v>1.00874952948095</v>
       </c>
       <c r="K20">
-        <v>1.009450773577297</v>
+        <v>1.020256019577928</v>
       </c>
       <c r="L20">
-        <v>1.00708909306255</v>
+        <v>1.016899799162194</v>
       </c>
       <c r="M20">
-        <v>1.011176281843849</v>
+        <v>1.022727439418302</v>
       </c>
       <c r="N20">
-        <v>1.000605061122367</v>
+        <v>1.006325090549585</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9614824543368379</v>
+        <v>0.9734593831643827</v>
       </c>
       <c r="D21">
-        <v>0.9886832265082688</v>
+        <v>1.001239614683589</v>
       </c>
       <c r="E21">
-        <v>0.9853564564326083</v>
+        <v>0.9971178751028322</v>
       </c>
       <c r="F21">
-        <v>0.9889711124228225</v>
+        <v>1.002839639416383</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031416396461194</v>
+        <v>1.03680265975448</v>
       </c>
       <c r="J21">
-        <v>0.9926837661010934</v>
+        <v>1.004110249735214</v>
       </c>
       <c r="K21">
-        <v>1.003882217968042</v>
+        <v>1.016197540181098</v>
       </c>
       <c r="L21">
-        <v>1.000620669375702</v>
+        <v>1.012154056725834</v>
       </c>
       <c r="M21">
-        <v>1.004164486922032</v>
+        <v>1.017767412927905</v>
       </c>
       <c r="N21">
-        <v>0.9940934909113763</v>
+        <v>1.004726442497008</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9556209030964442</v>
+        <v>0.9689420845753769</v>
       </c>
       <c r="D22">
-        <v>0.9843585849351602</v>
+        <v>0.9979588095325813</v>
       </c>
       <c r="E22">
-        <v>0.9804473313137837</v>
+        <v>0.9933900411118354</v>
       </c>
       <c r="F22">
-        <v>0.9837025555135254</v>
+        <v>0.9989732749058878</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02975305627818</v>
+        <v>1.035716115886955</v>
       </c>
       <c r="J22">
-        <v>0.9884405359406865</v>
+        <v>1.001108664472042</v>
       </c>
       <c r="K22">
-        <v>1.000246402598971</v>
+        <v>1.013570811545797</v>
       </c>
       <c r="L22">
-        <v>0.9964163429222507</v>
+        <v>1.009093589771864</v>
       </c>
       <c r="M22">
-        <v>0.9996039322253332</v>
+        <v>1.014565098897052</v>
       </c>
       <c r="N22">
-        <v>0.9898442348774363</v>
+        <v>1.003691804980799</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9587494534557667</v>
+        <v>0.9713492504021829</v>
       </c>
       <c r="D23">
-        <v>0.9866659521851069</v>
+        <v>0.999706325051308</v>
       </c>
       <c r="E23">
-        <v>0.983065028386736</v>
+        <v>0.995374849151485</v>
       </c>
       <c r="F23">
-        <v>0.9865123672134753</v>
+        <v>1.001032246184953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030641784537595</v>
+        <v>1.036296042502285</v>
       </c>
       <c r="J23">
-        <v>0.9907053916685945</v>
+        <v>1.002708193374725</v>
       </c>
       <c r="K23">
-        <v>1.002187211514884</v>
+        <v>1.014970655500206</v>
       </c>
       <c r="L23">
-        <v>0.9986588172421521</v>
+        <v>1.010723541002134</v>
       </c>
       <c r="M23">
-        <v>1.002036705816328</v>
+        <v>1.016270943699866</v>
       </c>
       <c r="N23">
-        <v>0.9921123069602604</v>
+        <v>1.004243184328581</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9706145434244126</v>
+        <v>0.9805583991007656</v>
       </c>
       <c r="D24">
-        <v>0.9954342093312244</v>
+        <v>1.006407321658047</v>
       </c>
       <c r="E24">
-        <v>0.9930449840976687</v>
+        <v>1.003003548060635</v>
       </c>
       <c r="F24">
-        <v>0.9972152184456263</v>
+        <v>1.008937275510003</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033991440348829</v>
+        <v>1.038493980645703</v>
       </c>
       <c r="J24">
-        <v>0.999292647256968</v>
+        <v>1.008825937459946</v>
       </c>
       <c r="K24">
-        <v>1.009541982622124</v>
+        <v>1.020322844159968</v>
       </c>
       <c r="L24">
-        <v>1.007195348489068</v>
+        <v>1.016978122541562</v>
       </c>
       <c r="M24">
-        <v>1.011291415097974</v>
+        <v>1.022809239559179</v>
       </c>
       <c r="N24">
-        <v>1.000711757436541</v>
+        <v>1.00635141381759</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9835574615624131</v>
+        <v>0.9907418864237828</v>
       </c>
       <c r="D25">
-        <v>1.005027095968473</v>
+        <v>1.013843949992687</v>
       </c>
       <c r="E25">
-        <v>1.004027370807666</v>
+        <v>1.011506082406193</v>
       </c>
       <c r="F25">
-        <v>1.008975472486621</v>
+        <v>1.017730688811374</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037599296709016</v>
+        <v>1.040879672784013</v>
       </c>
       <c r="J25">
-        <v>1.008651142425639</v>
+        <v>1.015584891167641</v>
       </c>
       <c r="K25">
-        <v>1.01754787079319</v>
+        <v>1.026231091548062</v>
       </c>
       <c r="L25">
-        <v>1.016563487092398</v>
+        <v>1.023928368983999</v>
       </c>
       <c r="M25">
-        <v>1.021436035484665</v>
+        <v>1.030059855548435</v>
       </c>
       <c r="N25">
-        <v>1.010083542741787</v>
+        <v>1.00867892177848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9985035429967239</v>
+        <v>1.035940116698993</v>
       </c>
       <c r="D2">
-        <v>1.019529002064314</v>
+        <v>1.042567694981916</v>
       </c>
       <c r="E2">
-        <v>1.018035286126036</v>
+        <v>1.051155885153868</v>
       </c>
       <c r="F2">
-        <v>1.024470152336907</v>
+        <v>1.05621891788469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042659745800402</v>
+        <v>1.034260130907798</v>
       </c>
       <c r="J2">
-        <v>1.020729105146069</v>
+        <v>1.041051150281763</v>
       </c>
       <c r="K2">
-        <v>1.030722809501867</v>
+        <v>1.045344016534309</v>
       </c>
       <c r="L2">
-        <v>1.029248951182143</v>
+        <v>1.053908169894613</v>
       </c>
       <c r="M2">
-        <v>1.03559878873232</v>
+        <v>1.058957230546133</v>
       </c>
       <c r="N2">
-        <v>1.010448671740017</v>
+        <v>1.017568119792965</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003949830146761</v>
+        <v>1.037076386633553</v>
       </c>
       <c r="D3">
-        <v>1.023526062088241</v>
+        <v>1.043421473233834</v>
       </c>
       <c r="E3">
-        <v>1.022642959773051</v>
+        <v>1.0521981059167</v>
       </c>
       <c r="F3">
-        <v>1.029218864964192</v>
+        <v>1.057275462344669</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043885547501043</v>
+        <v>1.034446253596193</v>
       </c>
       <c r="J3">
-        <v>1.024333394908173</v>
+        <v>1.041830235974473</v>
       </c>
       <c r="K3">
-        <v>1.033866517999194</v>
+        <v>1.046008540291546</v>
       </c>
       <c r="L3">
-        <v>1.032994090582331</v>
+        <v>1.054762389668289</v>
       </c>
       <c r="M3">
-        <v>1.039491051666958</v>
+        <v>1.059826752007912</v>
       </c>
       <c r="N3">
-        <v>1.011687490023498</v>
+        <v>1.01783181130236</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007392221009141</v>
+        <v>1.037811621130496</v>
       </c>
       <c r="D4">
-        <v>1.026055529876861</v>
+        <v>1.043973777974765</v>
       </c>
       <c r="E4">
-        <v>1.02556682441839</v>
+        <v>1.052873305296313</v>
       </c>
       <c r="F4">
-        <v>1.032228899223699</v>
+        <v>1.057959624398905</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044649207626532</v>
+        <v>1.034565244654871</v>
       </c>
       <c r="J4">
-        <v>1.02660870476701</v>
+        <v>1.042333817253804</v>
       </c>
       <c r="K4">
-        <v>1.035849337951158</v>
+        <v>1.046437743653282</v>
       </c>
       <c r="L4">
-        <v>1.035366170326413</v>
+        <v>1.055315334915582</v>
       </c>
       <c r="M4">
-        <v>1.041953308611567</v>
+        <v>1.060389295138784</v>
       </c>
       <c r="N4">
-        <v>1.012468940723256</v>
+        <v>1.018002118579506</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008820653325849</v>
+        <v>1.038120712579849</v>
       </c>
       <c r="D5">
-        <v>1.027105798647819</v>
+        <v>1.044205931450816</v>
       </c>
       <c r="E5">
-        <v>1.026782778306771</v>
+        <v>1.053157353511057</v>
       </c>
       <c r="F5">
-        <v>1.033479899266239</v>
+        <v>1.058247367422428</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044963369743045</v>
+        <v>1.034614922938505</v>
       </c>
       <c r="J5">
-        <v>1.027552125981137</v>
+        <v>1.042545393874623</v>
       </c>
       <c r="K5">
-        <v>1.036671043898208</v>
+        <v>1.046617992014419</v>
       </c>
       <c r="L5">
-        <v>1.036351582981692</v>
+        <v>1.055547842732119</v>
       </c>
       <c r="M5">
-        <v>1.042975465506766</v>
+        <v>1.060625765339699</v>
       </c>
       <c r="N5">
-        <v>1.012792807850755</v>
+        <v>1.018073639403056</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009059416762717</v>
+        <v>1.038172610351532</v>
       </c>
       <c r="D6">
-        <v>1.027281388123406</v>
+        <v>1.044244908954938</v>
       </c>
       <c r="E6">
-        <v>1.026986181487674</v>
+        <v>1.053205057849752</v>
       </c>
       <c r="F6">
-        <v>1.03368911877884</v>
+        <v>1.058295687851763</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045015720651095</v>
+        <v>1.034623243872729</v>
       </c>
       <c r="J6">
-        <v>1.027709775367102</v>
+        <v>1.042580910963008</v>
       </c>
       <c r="K6">
-        <v>1.036808327727466</v>
+        <v>1.046648245437227</v>
       </c>
       <c r="L6">
-        <v>1.036516358638084</v>
+        <v>1.055586884723998</v>
       </c>
       <c r="M6">
-        <v>1.043146343292382</v>
+        <v>1.060665468379568</v>
       </c>
       <c r="N6">
-        <v>1.012846918328775</v>
+        <v>1.018085643585225</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007411380418192</v>
+        <v>1.037815751228998</v>
       </c>
       <c r="D7">
-        <v>1.026069614526434</v>
+        <v>1.043976880160468</v>
       </c>
       <c r="E7">
-        <v>1.025583123363712</v>
+        <v>1.052877099998872</v>
       </c>
       <c r="F7">
-        <v>1.032245671042</v>
+        <v>1.057963468758802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044653432274264</v>
+        <v>1.034565909816529</v>
       </c>
       <c r="J7">
-        <v>1.026621361709923</v>
+        <v>1.042336644857462</v>
       </c>
       <c r="K7">
-        <v>1.035860363726619</v>
+        <v>1.046440152882421</v>
       </c>
       <c r="L7">
-        <v>1.035379383264618</v>
+        <v>1.055318441501559</v>
       </c>
       <c r="M7">
-        <v>1.041967017064892</v>
+        <v>1.060392454955406</v>
       </c>
       <c r="N7">
-        <v>1.012473286325538</v>
+        <v>1.018003074544332</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000361568882704</v>
+        <v>1.03632412661599</v>
       </c>
       <c r="D8">
-        <v>1.020891919617942</v>
+        <v>1.042856263587833</v>
       </c>
       <c r="E8">
-        <v>1.019604741927813</v>
+        <v>1.051507940111149</v>
       </c>
       <c r="F8">
-        <v>1.026088351924009</v>
+        <v>1.056575876956641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043080237866711</v>
+        <v>1.034323330582313</v>
       </c>
       <c r="J8">
-        <v>1.021959287992321</v>
+        <v>1.041314557687761</v>
       </c>
       <c r="K8">
-        <v>1.031796141727098</v>
+        <v>1.04556875854101</v>
       </c>
       <c r="L8">
-        <v>1.030525544575769</v>
+        <v>1.054196814325445</v>
       </c>
       <c r="M8">
-        <v>1.036926165371119</v>
+        <v>1.05925110909259</v>
       </c>
       <c r="N8">
-        <v>1.010871612606333</v>
+        <v>1.017657301549137</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9872736822273569</v>
+        <v>1.033695594463106</v>
       </c>
       <c r="D9">
-        <v>1.011308275739384</v>
+        <v>1.040880480652246</v>
       </c>
       <c r="E9">
-        <v>1.008602348303507</v>
+        <v>1.049101539480903</v>
       </c>
       <c r="F9">
-        <v>1.014729720746314</v>
+        <v>1.05413465150334</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04007307351248</v>
+        <v>1.033884831812935</v>
       </c>
       <c r="J9">
-        <v>1.013283984541827</v>
+        <v>1.039509372186849</v>
       </c>
       <c r="K9">
-        <v>1.024220510171872</v>
+        <v>1.04402721943913</v>
       </c>
       <c r="L9">
-        <v>1.021557383336319</v>
+        <v>1.052221962436767</v>
       </c>
       <c r="M9">
-        <v>1.027588254867078</v>
+        <v>1.057239184816775</v>
       </c>
       <c r="N9">
-        <v>1.007886830326499</v>
+        <v>1.017045565724795</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9780416087258418</v>
+        <v>1.031943119081516</v>
       </c>
       <c r="D10">
-        <v>1.004573618960026</v>
+        <v>1.03956255641367</v>
       </c>
       <c r="E10">
-        <v>1.000913069945622</v>
+        <v>1.047501472567248</v>
       </c>
       <c r="F10">
-        <v>1.006772477091044</v>
+        <v>1.052509785366022</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037896780537873</v>
+        <v>1.033585082508328</v>
       </c>
       <c r="J10">
-        <v>1.007154362332934</v>
+        <v>1.038303120781369</v>
       </c>
       <c r="K10">
-        <v>1.018860783416445</v>
+        <v>1.042995474497385</v>
       </c>
       <c r="L10">
-        <v>1.015265858179021</v>
+        <v>1.050906474842514</v>
       </c>
       <c r="M10">
-        <v>1.021020519614182</v>
+        <v>1.055897415253202</v>
       </c>
       <c r="N10">
-        <v>1.00577549177361</v>
+        <v>1.016636102880346</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9739090242935038</v>
+        <v>1.031184236407044</v>
       </c>
       <c r="D11">
-        <v>1.001566505961851</v>
+        <v>1.038991708062522</v>
       </c>
       <c r="E11">
-        <v>0.9974896704888918</v>
+        <v>1.046809623118479</v>
       </c>
       <c r="F11">
-        <v>1.003225071596065</v>
+        <v>1.051806820875276</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036910394106553</v>
+        <v>1.033453529924203</v>
       </c>
       <c r="J11">
-        <v>1.004408993649059</v>
+        <v>1.037780134162596</v>
       </c>
       <c r="K11">
-        <v>1.016458940617216</v>
+        <v>1.042547756175901</v>
       </c>
       <c r="L11">
-        <v>1.012459083732645</v>
+        <v>1.050337110805088</v>
       </c>
       <c r="M11">
-        <v>1.018086423001351</v>
+        <v>1.055316298326325</v>
       </c>
       <c r="N11">
-        <v>1.00482940638882</v>
+        <v>1.01645841215788</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9723523203544853</v>
+        <v>1.030902344974453</v>
       </c>
       <c r="D12">
-        <v>1.000435025042338</v>
+        <v>1.038779642804382</v>
       </c>
       <c r="E12">
-        <v>0.9962030456827168</v>
+        <v>1.046552788156532</v>
       </c>
       <c r="F12">
-        <v>1.001891116129899</v>
+        <v>1.051545800558583</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036537076329903</v>
+        <v>1.0334044011938</v>
       </c>
       <c r="J12">
-        <v>1.003374686946124</v>
+        <v>1.037585772300899</v>
       </c>
       <c r="K12">
-        <v>1.015553895402114</v>
+        <v>1.042381308409977</v>
       </c>
       <c r="L12">
-        <v>1.011403352678008</v>
+        <v>1.050125661261288</v>
       </c>
       <c r="M12">
-        <v>1.016982174802674</v>
+        <v>1.055100427173698</v>
       </c>
       <c r="N12">
-        <v>1.004472916274347</v>
+        <v>1.01639235118153</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9726872433036188</v>
+        <v>1.030962812053147</v>
       </c>
       <c r="D13">
-        <v>1.000678402190077</v>
+        <v>1.038825132732489</v>
       </c>
       <c r="E13">
-        <v>0.9964797263786044</v>
+        <v>1.046607873397806</v>
       </c>
       <c r="F13">
-        <v>1.002178008070617</v>
+        <v>1.051601786141906</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03661747318993</v>
+        <v>1.033414951430003</v>
       </c>
       <c r="J13">
-        <v>1.003597222370747</v>
+        <v>1.037627468172783</v>
       </c>
       <c r="K13">
-        <v>1.015748626346974</v>
+        <v>1.042417018595497</v>
       </c>
       <c r="L13">
-        <v>1.011630419701566</v>
+        <v>1.050171016205304</v>
       </c>
       <c r="M13">
-        <v>1.017219705403362</v>
+        <v>1.055146733106045</v>
       </c>
       <c r="N13">
-        <v>1.00454961897478</v>
+        <v>1.016406524143624</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9737807973676418</v>
+        <v>1.031160935356123</v>
       </c>
       <c r="D14">
-        <v>1.001473278403536</v>
+        <v>1.03897417922783</v>
       </c>
       <c r="E14">
-        <v>0.9973836296858367</v>
+        <v>1.046788390026522</v>
       </c>
       <c r="F14">
-        <v>1.003115144755418</v>
+        <v>1.051785242978633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036879678821569</v>
+        <v>1.033449474318214</v>
       </c>
       <c r="J14">
-        <v>1.004323799634693</v>
+        <v>1.037764070220298</v>
       </c>
       <c r="K14">
-        <v>1.016384396696227</v>
+        <v>1.042534000515352</v>
       </c>
       <c r="L14">
-        <v>1.012372090050318</v>
+        <v>1.050319631552967</v>
       </c>
       <c r="M14">
-        <v>1.017995444238454</v>
+        <v>1.055298454726759</v>
       </c>
       <c r="N14">
-        <v>1.004800044005093</v>
+        <v>1.016452952735316</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9744516558713469</v>
+        <v>1.031283004483659</v>
       </c>
       <c r="D15">
-        <v>1.001961079482583</v>
+        <v>1.039066008147732</v>
       </c>
       <c r="E15">
-        <v>0.9979385351355944</v>
+        <v>1.04689963198654</v>
       </c>
       <c r="F15">
-        <v>1.003690355945485</v>
+        <v>1.051898288976508</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03704030423845</v>
+        <v>1.033470709995745</v>
       </c>
       <c r="J15">
-        <v>1.004769512498419</v>
+        <v>1.037848221808518</v>
       </c>
       <c r="K15">
-        <v>1.016774384723975</v>
+        <v>1.042606057686768</v>
       </c>
       <c r="L15">
-        <v>1.012827288195195</v>
+        <v>1.050411203355416</v>
       </c>
       <c r="M15">
-        <v>1.01847146888862</v>
+        <v>1.055391932975346</v>
       </c>
       <c r="N15">
-        <v>1.004953658116167</v>
+        <v>1.016481551139269</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9783129137909785</v>
+        <v>1.031993482483443</v>
       </c>
       <c r="D16">
-        <v>1.004771204636088</v>
+        <v>1.039600437982917</v>
       </c>
       <c r="E16">
-        <v>1.001138215051008</v>
+        <v>1.047547409194753</v>
       </c>
       <c r="F16">
-        <v>1.007005678128177</v>
+        <v>1.052556451712877</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037961289758461</v>
+        <v>1.033593776160942</v>
       </c>
       <c r="J16">
-        <v>1.00733457078691</v>
+        <v>1.038337815491367</v>
       </c>
       <c r="K16">
-        <v>1.019018418395225</v>
+        <v>1.043025167725853</v>
       </c>
       <c r="L16">
-        <v>1.01545033162365</v>
+        <v>1.050944266936453</v>
       </c>
       <c r="M16">
-        <v>1.02121327500982</v>
+        <v>1.055935979490147</v>
       </c>
       <c r="N16">
-        <v>1.005837585279369</v>
+        <v>1.016647887394821</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9806978822675816</v>
+        <v>1.032439132513083</v>
       </c>
       <c r="D17">
-        <v>1.006508998000046</v>
+        <v>1.039935623955442</v>
       </c>
       <c r="E17">
-        <v>1.003119529130804</v>
+        <v>1.04795400778245</v>
       </c>
       <c r="F17">
-        <v>1.009057348299512</v>
+        <v>1.052969463898708</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038526996307611</v>
+        <v>1.033670501374206</v>
       </c>
       <c r="J17">
-        <v>1.008918567573215</v>
+        <v>1.038644744521211</v>
       </c>
       <c r="K17">
-        <v>1.020403855365585</v>
+        <v>1.04328780568125</v>
       </c>
       <c r="L17">
-        <v>1.017073081895686</v>
+        <v>1.051278710730634</v>
       </c>
       <c r="M17">
-        <v>1.0229084114842</v>
+        <v>1.056277212770374</v>
       </c>
       <c r="N17">
-        <v>1.006383325466149</v>
+        <v>1.01675212112438</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9820760652564338</v>
+        <v>1.032699067963281</v>
       </c>
       <c r="D18">
-        <v>1.007513907226636</v>
+        <v>1.040131115040565</v>
       </c>
       <c r="E18">
-        <v>1.004266202677024</v>
+        <v>1.048191265389713</v>
       </c>
       <c r="F18">
-        <v>1.010244295024521</v>
+        <v>1.053210426100261</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038852736983897</v>
+        <v>1.03371508415649</v>
       </c>
       <c r="J18">
-        <v>1.00983374778592</v>
+        <v>1.038823706240411</v>
       </c>
       <c r="K18">
-        <v>1.021204189169832</v>
+        <v>1.043440904765002</v>
       </c>
       <c r="L18">
-        <v>1.01801170000874</v>
+        <v>1.051473810337668</v>
       </c>
       <c r="M18">
-        <v>1.02388851088055</v>
+        <v>1.056476236622382</v>
       </c>
       <c r="N18">
-        <v>1.00669859278041</v>
+        <v>1.016812881210386</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9825438373379554</v>
+        <v>1.032787698478958</v>
       </c>
       <c r="D19">
-        <v>1.007855101226299</v>
+        <v>1.040197769526042</v>
       </c>
       <c r="E19">
-        <v>1.004655689874176</v>
+        <v>1.048272180306703</v>
       </c>
       <c r="F19">
-        <v>1.010647386735936</v>
+        <v>1.05329259802643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03896309836792</v>
+        <v>1.03373025694134</v>
       </c>
       <c r="J19">
-        <v>1.010144343121944</v>
+        <v>1.038884716584797</v>
       </c>
       <c r="K19">
-        <v>1.021475785511371</v>
+        <v>1.043493091792848</v>
       </c>
       <c r="L19">
-        <v>1.018330426257977</v>
+        <v>1.051540338368589</v>
       </c>
       <c r="M19">
-        <v>1.024221257440388</v>
+        <v>1.056544096624558</v>
       </c>
       <c r="N19">
-        <v>1.00680558108561</v>
+        <v>1.016833592438888</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9804433446620248</v>
+        <v>1.032391318974345</v>
       </c>
       <c r="D20">
-        <v>1.006323456621248</v>
+        <v>1.039899663453619</v>
       </c>
       <c r="E20">
-        <v>1.002907889492755</v>
+        <v>1.047910373720901</v>
       </c>
       <c r="F20">
-        <v>1.008838239669366</v>
+        <v>1.052925145479381</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03846674068661</v>
+        <v>1.03366228704118</v>
       </c>
       <c r="J20">
-        <v>1.00874952948095</v>
+        <v>1.038611820645563</v>
       </c>
       <c r="K20">
-        <v>1.020256019577928</v>
+        <v>1.043259636754294</v>
       </c>
       <c r="L20">
-        <v>1.016899799162194</v>
+        <v>1.05124282557388</v>
       </c>
       <c r="M20">
-        <v>1.022727439418302</v>
+        <v>1.05624060288479</v>
       </c>
       <c r="N20">
-        <v>1.006325090549585</v>
+        <v>1.016740941729874</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9734593831643827</v>
+        <v>1.03110259322915</v>
       </c>
       <c r="D21">
-        <v>1.001239614683589</v>
+        <v>1.038930289488269</v>
       </c>
       <c r="E21">
-        <v>0.9971178751028322</v>
+        <v>1.046735228273175</v>
       </c>
       <c r="F21">
-        <v>1.002839639416383</v>
+        <v>1.0517312169744</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03680265975448</v>
+        <v>1.033439315482101</v>
       </c>
       <c r="J21">
-        <v>1.004110249735214</v>
+        <v>1.037723847122991</v>
       </c>
       <c r="K21">
-        <v>1.016197540181098</v>
+        <v>1.042499556266167</v>
       </c>
       <c r="L21">
-        <v>1.012154056725834</v>
+        <v>1.050275866999505</v>
       </c>
       <c r="M21">
-        <v>1.017767412927905</v>
+        <v>1.055253777001546</v>
       </c>
       <c r="N21">
-        <v>1.004726442497008</v>
+        <v>1.016439282293883</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9689420845753769</v>
+        <v>1.030292269741264</v>
       </c>
       <c r="D22">
-        <v>0.9979588095325813</v>
+        <v>1.038320650778464</v>
       </c>
       <c r="E22">
-        <v>0.9933900411118354</v>
+        <v>1.045997228172174</v>
       </c>
       <c r="F22">
-        <v>0.9989732749058878</v>
+        <v>1.05098107891842</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035716115886955</v>
+        <v>1.033297595607934</v>
       </c>
       <c r="J22">
-        <v>1.001108664472042</v>
+        <v>1.037164956365922</v>
       </c>
       <c r="K22">
-        <v>1.013570811545797</v>
+        <v>1.042020823081491</v>
       </c>
       <c r="L22">
-        <v>1.009093589771864</v>
+        <v>1.049668119336526</v>
       </c>
       <c r="M22">
-        <v>1.014565098897052</v>
+        <v>1.05463321357343</v>
       </c>
       <c r="N22">
-        <v>1.003691804980799</v>
+        <v>1.016249277214634</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9713492504021829</v>
+        <v>1.030721842743163</v>
       </c>
       <c r="D23">
-        <v>0.999706325051308</v>
+        <v>1.038643846453485</v>
       </c>
       <c r="E23">
-        <v>0.995374849151485</v>
+        <v>1.046388374432385</v>
       </c>
       <c r="F23">
-        <v>1.001032246184953</v>
+        <v>1.051378690897968</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036296042502285</v>
+        <v>1.033372868890998</v>
       </c>
       <c r="J23">
-        <v>1.002708193374725</v>
+        <v>1.037461290668807</v>
       </c>
       <c r="K23">
-        <v>1.014970655500206</v>
+        <v>1.042274688303705</v>
       </c>
       <c r="L23">
-        <v>1.010723541002134</v>
+        <v>1.049990277270234</v>
       </c>
       <c r="M23">
-        <v>1.016270943699866</v>
+        <v>1.054962196162845</v>
       </c>
       <c r="N23">
-        <v>1.004243184328581</v>
+        <v>1.016350034728639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9805583991007656</v>
+        <v>1.032412923868442</v>
       </c>
       <c r="D24">
-        <v>1.006407321658047</v>
+        <v>1.039915912509573</v>
       </c>
       <c r="E24">
-        <v>1.003003548060635</v>
+        <v>1.047930089779799</v>
       </c>
       <c r="F24">
-        <v>1.008937275510003</v>
+        <v>1.052945170882379</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038493980645703</v>
+        <v>1.033665999269097</v>
       </c>
       <c r="J24">
-        <v>1.008825937459946</v>
+        <v>1.038626697727761</v>
       </c>
       <c r="K24">
-        <v>1.020322844159968</v>
+        <v>1.043272365367667</v>
       </c>
       <c r="L24">
-        <v>1.016978122541562</v>
+        <v>1.051259040456649</v>
       </c>
       <c r="M24">
-        <v>1.022809239559179</v>
+        <v>1.056257145352365</v>
       </c>
       <c r="N24">
-        <v>1.00635141381759</v>
+        <v>1.016745993333424</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9907418864237828</v>
+        <v>1.034375150331085</v>
       </c>
       <c r="D25">
-        <v>1.013843949992687</v>
+        <v>1.041391398493597</v>
       </c>
       <c r="E25">
-        <v>1.011506082406193</v>
+        <v>1.049722912054843</v>
       </c>
       <c r="F25">
-        <v>1.017730688811374</v>
+        <v>1.054765305664125</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040879672784013</v>
+        <v>1.033999502100876</v>
       </c>
       <c r="J25">
-        <v>1.015584891167641</v>
+        <v>1.039976547505839</v>
       </c>
       <c r="K25">
-        <v>1.026231091548062</v>
+        <v>1.044426458663698</v>
       </c>
       <c r="L25">
-        <v>1.023928368983999</v>
+        <v>1.052732318977308</v>
       </c>
       <c r="M25">
-        <v>1.030059855548435</v>
+        <v>1.057759401403743</v>
       </c>
       <c r="N25">
-        <v>1.00867892177848</v>
+        <v>1.017204003068015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035940116698993</v>
+        <v>0.9985035429967245</v>
       </c>
       <c r="D2">
-        <v>1.042567694981916</v>
+        <v>1.019529002064315</v>
       </c>
       <c r="E2">
-        <v>1.051155885153868</v>
+        <v>1.018035286126038</v>
       </c>
       <c r="F2">
-        <v>1.05621891788469</v>
+        <v>1.024470152336908</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034260130907798</v>
+        <v>1.042659745800403</v>
       </c>
       <c r="J2">
-        <v>1.041051150281763</v>
+        <v>1.020729105146069</v>
       </c>
       <c r="K2">
-        <v>1.045344016534309</v>
+        <v>1.030722809501868</v>
       </c>
       <c r="L2">
-        <v>1.053908169894613</v>
+        <v>1.029248951182145</v>
       </c>
       <c r="M2">
-        <v>1.058957230546133</v>
+        <v>1.035598788732321</v>
       </c>
       <c r="N2">
-        <v>1.017568119792965</v>
+        <v>1.010448671740018</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037076386633553</v>
+        <v>1.003949830146761</v>
       </c>
       <c r="D3">
-        <v>1.043421473233834</v>
+        <v>1.02352606208824</v>
       </c>
       <c r="E3">
-        <v>1.0521981059167</v>
+        <v>1.022642959773052</v>
       </c>
       <c r="F3">
-        <v>1.057275462344669</v>
+        <v>1.029218864964193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034446253596193</v>
+        <v>1.043885547501043</v>
       </c>
       <c r="J3">
-        <v>1.041830235974473</v>
+        <v>1.024333394908173</v>
       </c>
       <c r="K3">
-        <v>1.046008540291546</v>
+        <v>1.033866517999194</v>
       </c>
       <c r="L3">
-        <v>1.054762389668289</v>
+        <v>1.032994090582332</v>
       </c>
       <c r="M3">
-        <v>1.059826752007912</v>
+        <v>1.039491051666958</v>
       </c>
       <c r="N3">
-        <v>1.01783181130236</v>
+        <v>1.011687490023498</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037811621130496</v>
+        <v>1.007392221009142</v>
       </c>
       <c r="D4">
-        <v>1.043973777974765</v>
+        <v>1.026055529876862</v>
       </c>
       <c r="E4">
-        <v>1.052873305296313</v>
+        <v>1.02556682441839</v>
       </c>
       <c r="F4">
-        <v>1.057959624398905</v>
+        <v>1.0322288992237</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034565244654871</v>
+        <v>1.044649207626533</v>
       </c>
       <c r="J4">
-        <v>1.042333817253804</v>
+        <v>1.02660870476701</v>
       </c>
       <c r="K4">
-        <v>1.046437743653282</v>
+        <v>1.035849337951158</v>
       </c>
       <c r="L4">
-        <v>1.055315334915582</v>
+        <v>1.035366170326413</v>
       </c>
       <c r="M4">
-        <v>1.060389295138784</v>
+        <v>1.041953308611568</v>
       </c>
       <c r="N4">
-        <v>1.018002118579506</v>
+        <v>1.012468940723256</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038120712579849</v>
+        <v>1.008820653325849</v>
       </c>
       <c r="D5">
-        <v>1.044205931450816</v>
+        <v>1.027105798647819</v>
       </c>
       <c r="E5">
-        <v>1.053157353511057</v>
+        <v>1.026782778306771</v>
       </c>
       <c r="F5">
-        <v>1.058247367422428</v>
+        <v>1.03347989926624</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034614922938505</v>
+        <v>1.044963369743045</v>
       </c>
       <c r="J5">
-        <v>1.042545393874623</v>
+        <v>1.027552125981138</v>
       </c>
       <c r="K5">
-        <v>1.046617992014419</v>
+        <v>1.036671043898208</v>
       </c>
       <c r="L5">
-        <v>1.055547842732119</v>
+        <v>1.036351582981692</v>
       </c>
       <c r="M5">
-        <v>1.060625765339699</v>
+        <v>1.042975465506767</v>
       </c>
       <c r="N5">
-        <v>1.018073639403056</v>
+        <v>1.012792807850755</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038172610351532</v>
+        <v>1.009059416762716</v>
       </c>
       <c r="D6">
-        <v>1.044244908954938</v>
+        <v>1.027281388123405</v>
       </c>
       <c r="E6">
-        <v>1.053205057849752</v>
+        <v>1.026986181487673</v>
       </c>
       <c r="F6">
-        <v>1.058295687851763</v>
+        <v>1.033689118778839</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034623243872729</v>
+        <v>1.045015720651094</v>
       </c>
       <c r="J6">
-        <v>1.042580910963008</v>
+        <v>1.027709775367101</v>
       </c>
       <c r="K6">
-        <v>1.046648245437227</v>
+        <v>1.036808327727465</v>
       </c>
       <c r="L6">
-        <v>1.055586884723998</v>
+        <v>1.036516358638083</v>
       </c>
       <c r="M6">
-        <v>1.060665468379568</v>
+        <v>1.043146343292381</v>
       </c>
       <c r="N6">
-        <v>1.018085643585225</v>
+        <v>1.012846918328774</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037815751228998</v>
+        <v>1.007411380418192</v>
       </c>
       <c r="D7">
-        <v>1.043976880160468</v>
+        <v>1.026069614526434</v>
       </c>
       <c r="E7">
-        <v>1.052877099998872</v>
+        <v>1.025583123363712</v>
       </c>
       <c r="F7">
-        <v>1.057963468758802</v>
+        <v>1.032245671042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034565909816529</v>
+        <v>1.044653432274264</v>
       </c>
       <c r="J7">
-        <v>1.042336644857462</v>
+        <v>1.026621361709923</v>
       </c>
       <c r="K7">
-        <v>1.046440152882421</v>
+        <v>1.035860363726619</v>
       </c>
       <c r="L7">
-        <v>1.055318441501559</v>
+        <v>1.035379383264619</v>
       </c>
       <c r="M7">
-        <v>1.060392454955406</v>
+        <v>1.041967017064893</v>
       </c>
       <c r="N7">
-        <v>1.018003074544332</v>
+        <v>1.012473286325538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03632412661599</v>
+        <v>1.000361568882704</v>
       </c>
       <c r="D8">
-        <v>1.042856263587833</v>
+        <v>1.020891919617942</v>
       </c>
       <c r="E8">
-        <v>1.051507940111149</v>
+        <v>1.019604741927814</v>
       </c>
       <c r="F8">
-        <v>1.056575876956641</v>
+        <v>1.026088351924009</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034323330582313</v>
+        <v>1.043080237866711</v>
       </c>
       <c r="J8">
-        <v>1.041314557687761</v>
+        <v>1.021959287992322</v>
       </c>
       <c r="K8">
-        <v>1.04556875854101</v>
+        <v>1.031796141727098</v>
       </c>
       <c r="L8">
-        <v>1.054196814325445</v>
+        <v>1.03052554457577</v>
       </c>
       <c r="M8">
-        <v>1.05925110909259</v>
+        <v>1.036926165371119</v>
       </c>
       <c r="N8">
-        <v>1.017657301549137</v>
+        <v>1.010871612606333</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033695594463106</v>
+        <v>0.9872736822273581</v>
       </c>
       <c r="D9">
-        <v>1.040880480652246</v>
+        <v>1.011308275739385</v>
       </c>
       <c r="E9">
-        <v>1.049101539480903</v>
+        <v>1.008602348303508</v>
       </c>
       <c r="F9">
-        <v>1.05413465150334</v>
+        <v>1.014729720746315</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033884831812935</v>
+        <v>1.040073073512481</v>
       </c>
       <c r="J9">
-        <v>1.039509372186849</v>
+        <v>1.013283984541828</v>
       </c>
       <c r="K9">
-        <v>1.04402721943913</v>
+        <v>1.024220510171873</v>
       </c>
       <c r="L9">
-        <v>1.052221962436767</v>
+        <v>1.02155738333632</v>
       </c>
       <c r="M9">
-        <v>1.057239184816775</v>
+        <v>1.02758825486708</v>
       </c>
       <c r="N9">
-        <v>1.017045565724795</v>
+        <v>1.007886830326499</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031943119081516</v>
+        <v>0.9780416087258429</v>
       </c>
       <c r="D10">
-        <v>1.03956255641367</v>
+        <v>1.004573618960027</v>
       </c>
       <c r="E10">
-        <v>1.047501472567248</v>
+        <v>1.000913069945622</v>
       </c>
       <c r="F10">
-        <v>1.052509785366022</v>
+        <v>1.006772477091045</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033585082508328</v>
+        <v>1.037896780537874</v>
       </c>
       <c r="J10">
-        <v>1.038303120781369</v>
+        <v>1.007154362332935</v>
       </c>
       <c r="K10">
-        <v>1.042995474497385</v>
+        <v>1.018860783416446</v>
       </c>
       <c r="L10">
-        <v>1.050906474842514</v>
+        <v>1.015265858179022</v>
       </c>
       <c r="M10">
-        <v>1.055897415253202</v>
+        <v>1.021020519614183</v>
       </c>
       <c r="N10">
-        <v>1.016636102880346</v>
+        <v>1.005775491773611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031184236407044</v>
+        <v>0.9739090242935046</v>
       </c>
       <c r="D11">
-        <v>1.038991708062522</v>
+        <v>1.001566505961851</v>
       </c>
       <c r="E11">
-        <v>1.046809623118479</v>
+        <v>0.9974896704888923</v>
       </c>
       <c r="F11">
-        <v>1.051806820875276</v>
+        <v>1.003225071596066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033453529924203</v>
+        <v>1.036910394106553</v>
       </c>
       <c r="J11">
-        <v>1.037780134162596</v>
+        <v>1.00440899364906</v>
       </c>
       <c r="K11">
-        <v>1.042547756175901</v>
+        <v>1.016458940617216</v>
       </c>
       <c r="L11">
-        <v>1.050337110805088</v>
+        <v>1.012459083732646</v>
       </c>
       <c r="M11">
-        <v>1.055316298326325</v>
+        <v>1.018086423001352</v>
       </c>
       <c r="N11">
-        <v>1.01645841215788</v>
+        <v>1.004829406388821</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030902344974453</v>
+        <v>0.9723523203544844</v>
       </c>
       <c r="D12">
-        <v>1.038779642804382</v>
+        <v>1.000435025042338</v>
       </c>
       <c r="E12">
-        <v>1.046552788156532</v>
+        <v>0.9962030456827164</v>
       </c>
       <c r="F12">
-        <v>1.051545800558583</v>
+        <v>1.001891116129898</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0334044011938</v>
+        <v>1.036537076329902</v>
       </c>
       <c r="J12">
-        <v>1.037585772300899</v>
+        <v>1.003374686946123</v>
       </c>
       <c r="K12">
-        <v>1.042381308409977</v>
+        <v>1.015553895402113</v>
       </c>
       <c r="L12">
-        <v>1.050125661261288</v>
+        <v>1.011403352678007</v>
       </c>
       <c r="M12">
-        <v>1.055100427173698</v>
+        <v>1.016982174802673</v>
       </c>
       <c r="N12">
-        <v>1.01639235118153</v>
+        <v>1.004472916274347</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030962812053147</v>
+        <v>0.9726872433036193</v>
       </c>
       <c r="D13">
-        <v>1.038825132732489</v>
+        <v>1.000678402190077</v>
       </c>
       <c r="E13">
-        <v>1.046607873397806</v>
+        <v>0.996479726378605</v>
       </c>
       <c r="F13">
-        <v>1.051601786141906</v>
+        <v>1.002178008070617</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033414951430003</v>
+        <v>1.036617473189931</v>
       </c>
       <c r="J13">
-        <v>1.037627468172783</v>
+        <v>1.003597222370747</v>
       </c>
       <c r="K13">
-        <v>1.042417018595497</v>
+        <v>1.015748626346975</v>
       </c>
       <c r="L13">
-        <v>1.050171016205304</v>
+        <v>1.011630419701567</v>
       </c>
       <c r="M13">
-        <v>1.055146733106045</v>
+        <v>1.017219705403363</v>
       </c>
       <c r="N13">
-        <v>1.016406524143624</v>
+        <v>1.00454961897478</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031160935356123</v>
+        <v>0.9737807973676413</v>
       </c>
       <c r="D14">
-        <v>1.03897417922783</v>
+        <v>1.001473278403536</v>
       </c>
       <c r="E14">
-        <v>1.046788390026522</v>
+        <v>0.997383629685836</v>
       </c>
       <c r="F14">
-        <v>1.051785242978633</v>
+        <v>1.003115144755417</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033449474318214</v>
+        <v>1.03687967882157</v>
       </c>
       <c r="J14">
-        <v>1.037764070220298</v>
+        <v>1.004323799634693</v>
       </c>
       <c r="K14">
-        <v>1.042534000515352</v>
+        <v>1.016384396696227</v>
       </c>
       <c r="L14">
-        <v>1.050319631552967</v>
+        <v>1.012372090050317</v>
       </c>
       <c r="M14">
-        <v>1.055298454726759</v>
+        <v>1.017995444238453</v>
       </c>
       <c r="N14">
-        <v>1.016452952735316</v>
+        <v>1.004800044005093</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031283004483659</v>
+        <v>0.9744516558713477</v>
       </c>
       <c r="D15">
-        <v>1.039066008147732</v>
+        <v>1.001961079482584</v>
       </c>
       <c r="E15">
-        <v>1.04689963198654</v>
+        <v>0.9979385351355946</v>
       </c>
       <c r="F15">
-        <v>1.051898288976508</v>
+        <v>1.003690355945486</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033470709995745</v>
+        <v>1.03704030423845</v>
       </c>
       <c r="J15">
-        <v>1.037848221808518</v>
+        <v>1.00476951249842</v>
       </c>
       <c r="K15">
-        <v>1.042606057686768</v>
+        <v>1.016774384723975</v>
       </c>
       <c r="L15">
-        <v>1.050411203355416</v>
+        <v>1.012827288195196</v>
       </c>
       <c r="M15">
-        <v>1.055391932975346</v>
+        <v>1.01847146888862</v>
       </c>
       <c r="N15">
-        <v>1.016481551139269</v>
+        <v>1.004953658116167</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031993482483443</v>
+        <v>0.978312913790979</v>
       </c>
       <c r="D16">
-        <v>1.039600437982917</v>
+        <v>1.004771204636088</v>
       </c>
       <c r="E16">
-        <v>1.047547409194753</v>
+        <v>1.001138215051009</v>
       </c>
       <c r="F16">
-        <v>1.052556451712877</v>
+        <v>1.007005678128177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033593776160942</v>
+        <v>1.037961289758461</v>
       </c>
       <c r="J16">
-        <v>1.038337815491367</v>
+        <v>1.00733457078691</v>
       </c>
       <c r="K16">
-        <v>1.043025167725853</v>
+        <v>1.019018418395226</v>
       </c>
       <c r="L16">
-        <v>1.050944266936453</v>
+        <v>1.01545033162365</v>
       </c>
       <c r="M16">
-        <v>1.055935979490147</v>
+        <v>1.02121327500982</v>
       </c>
       <c r="N16">
-        <v>1.016647887394821</v>
+        <v>1.005837585279369</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032439132513083</v>
+        <v>0.9806978822675813</v>
       </c>
       <c r="D17">
-        <v>1.039935623955442</v>
+        <v>1.006508998000045</v>
       </c>
       <c r="E17">
-        <v>1.04795400778245</v>
+        <v>1.003119529130804</v>
       </c>
       <c r="F17">
-        <v>1.052969463898708</v>
+        <v>1.009057348299511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033670501374206</v>
+        <v>1.038526996307611</v>
       </c>
       <c r="J17">
-        <v>1.038644744521211</v>
+        <v>1.008918567573214</v>
       </c>
       <c r="K17">
-        <v>1.04328780568125</v>
+        <v>1.020403855365584</v>
       </c>
       <c r="L17">
-        <v>1.051278710730634</v>
+        <v>1.017073081895685</v>
       </c>
       <c r="M17">
-        <v>1.056277212770374</v>
+        <v>1.022908411484199</v>
       </c>
       <c r="N17">
-        <v>1.01675212112438</v>
+        <v>1.006383325466149</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032699067963281</v>
+        <v>0.9820760652564333</v>
       </c>
       <c r="D18">
-        <v>1.040131115040565</v>
+        <v>1.007513907226635</v>
       </c>
       <c r="E18">
-        <v>1.048191265389713</v>
+        <v>1.004266202677025</v>
       </c>
       <c r="F18">
-        <v>1.053210426100261</v>
+        <v>1.010244295024521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03371508415649</v>
+        <v>1.038852736983897</v>
       </c>
       <c r="J18">
-        <v>1.038823706240411</v>
+        <v>1.009833747785919</v>
       </c>
       <c r="K18">
-        <v>1.043440904765002</v>
+        <v>1.021204189169832</v>
       </c>
       <c r="L18">
-        <v>1.051473810337668</v>
+        <v>1.018011700008741</v>
       </c>
       <c r="M18">
-        <v>1.056476236622382</v>
+        <v>1.02388851088055</v>
       </c>
       <c r="N18">
-        <v>1.016812881210386</v>
+        <v>1.00669859278041</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032787698478958</v>
+        <v>0.9825438373379558</v>
       </c>
       <c r="D19">
-        <v>1.040197769526042</v>
+        <v>1.007855101226299</v>
       </c>
       <c r="E19">
-        <v>1.048272180306703</v>
+        <v>1.004655689874177</v>
       </c>
       <c r="F19">
-        <v>1.05329259802643</v>
+        <v>1.010647386735936</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03373025694134</v>
+        <v>1.03896309836792</v>
       </c>
       <c r="J19">
-        <v>1.038884716584797</v>
+        <v>1.010144343121944</v>
       </c>
       <c r="K19">
-        <v>1.043493091792848</v>
+        <v>1.021475785511371</v>
       </c>
       <c r="L19">
-        <v>1.051540338368589</v>
+        <v>1.018330426257977</v>
       </c>
       <c r="M19">
-        <v>1.056544096624558</v>
+        <v>1.024221257440389</v>
       </c>
       <c r="N19">
-        <v>1.016833592438888</v>
+        <v>1.00680558108561</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032391318974345</v>
+        <v>0.9804433446620232</v>
       </c>
       <c r="D20">
-        <v>1.039899663453619</v>
+        <v>1.006323456621247</v>
       </c>
       <c r="E20">
-        <v>1.047910373720901</v>
+        <v>1.002907889492754</v>
       </c>
       <c r="F20">
-        <v>1.052925145479381</v>
+        <v>1.008838239669364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03366228704118</v>
+        <v>1.038466740686609</v>
       </c>
       <c r="J20">
-        <v>1.038611820645563</v>
+        <v>1.008749529480949</v>
       </c>
       <c r="K20">
-        <v>1.043259636754294</v>
+        <v>1.020256019577927</v>
       </c>
       <c r="L20">
-        <v>1.05124282557388</v>
+        <v>1.016899799162193</v>
       </c>
       <c r="M20">
-        <v>1.05624060288479</v>
+        <v>1.0227274394183</v>
       </c>
       <c r="N20">
-        <v>1.016740941729874</v>
+        <v>1.006325090549585</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03110259322915</v>
+        <v>0.9734593831643836</v>
       </c>
       <c r="D21">
-        <v>1.038930289488269</v>
+        <v>1.00123961468359</v>
       </c>
       <c r="E21">
-        <v>1.046735228273175</v>
+        <v>0.9971178751028333</v>
       </c>
       <c r="F21">
-        <v>1.0517312169744</v>
+        <v>1.002839639416385</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033439315482101</v>
+        <v>1.03680265975448</v>
       </c>
       <c r="J21">
-        <v>1.037723847122991</v>
+        <v>1.004110249735215</v>
       </c>
       <c r="K21">
-        <v>1.042499556266167</v>
+        <v>1.016197540181099</v>
       </c>
       <c r="L21">
-        <v>1.050275866999505</v>
+        <v>1.012154056725835</v>
       </c>
       <c r="M21">
-        <v>1.055253777001546</v>
+        <v>1.017767412927906</v>
       </c>
       <c r="N21">
-        <v>1.016439282293883</v>
+        <v>1.004726442497008</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030292269741264</v>
+        <v>0.9689420845753759</v>
       </c>
       <c r="D22">
-        <v>1.038320650778464</v>
+        <v>0.9979588095325805</v>
       </c>
       <c r="E22">
-        <v>1.045997228172174</v>
+        <v>0.9933900411118356</v>
       </c>
       <c r="F22">
-        <v>1.05098107891842</v>
+        <v>0.9989732749058875</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033297595607934</v>
+        <v>1.035716115886955</v>
       </c>
       <c r="J22">
-        <v>1.037164956365922</v>
+        <v>1.001108664472042</v>
       </c>
       <c r="K22">
-        <v>1.042020823081491</v>
+        <v>1.013570811545797</v>
       </c>
       <c r="L22">
-        <v>1.049668119336526</v>
+        <v>1.009093589771864</v>
       </c>
       <c r="M22">
-        <v>1.05463321357343</v>
+        <v>1.014565098897052</v>
       </c>
       <c r="N22">
-        <v>1.016249277214634</v>
+        <v>1.003691804980799</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030721842743163</v>
+        <v>0.9713492504021829</v>
       </c>
       <c r="D23">
-        <v>1.038643846453485</v>
+        <v>0.9997063250513084</v>
       </c>
       <c r="E23">
-        <v>1.046388374432385</v>
+        <v>0.9953748491514851</v>
       </c>
       <c r="F23">
-        <v>1.051378690897968</v>
+        <v>1.001032246184953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033372868890998</v>
+        <v>1.036296042502285</v>
       </c>
       <c r="J23">
-        <v>1.037461290668807</v>
+        <v>1.002708193374725</v>
       </c>
       <c r="K23">
-        <v>1.042274688303705</v>
+        <v>1.014970655500206</v>
       </c>
       <c r="L23">
-        <v>1.049990277270234</v>
+        <v>1.010723541002133</v>
       </c>
       <c r="M23">
-        <v>1.054962196162845</v>
+        <v>1.016270943699866</v>
       </c>
       <c r="N23">
-        <v>1.016350034728639</v>
+        <v>1.004243184328581</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032412923868442</v>
+        <v>0.9805583991007643</v>
       </c>
       <c r="D24">
-        <v>1.039915912509573</v>
+        <v>1.006407321658046</v>
       </c>
       <c r="E24">
-        <v>1.047930089779799</v>
+        <v>1.003003548060634</v>
       </c>
       <c r="F24">
-        <v>1.052945170882379</v>
+        <v>1.008937275510002</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033665999269097</v>
+        <v>1.038493980645702</v>
       </c>
       <c r="J24">
-        <v>1.038626697727761</v>
+        <v>1.008825937459945</v>
       </c>
       <c r="K24">
-        <v>1.043272365367667</v>
+        <v>1.020322844159967</v>
       </c>
       <c r="L24">
-        <v>1.051259040456649</v>
+        <v>1.016978122541561</v>
       </c>
       <c r="M24">
-        <v>1.056257145352365</v>
+        <v>1.022809239559178</v>
       </c>
       <c r="N24">
-        <v>1.016745993333424</v>
+        <v>1.006351413817589</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034375150331085</v>
+        <v>0.9907418864237829</v>
       </c>
       <c r="D25">
-        <v>1.041391398493597</v>
+        <v>1.013843949992687</v>
       </c>
       <c r="E25">
-        <v>1.049722912054843</v>
+        <v>1.011506082406193</v>
       </c>
       <c r="F25">
-        <v>1.054765305664125</v>
+        <v>1.017730688811374</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033999502100876</v>
+        <v>1.040879672784013</v>
       </c>
       <c r="J25">
-        <v>1.039976547505839</v>
+        <v>1.015584891167641</v>
       </c>
       <c r="K25">
-        <v>1.044426458663698</v>
+        <v>1.026231091548062</v>
       </c>
       <c r="L25">
-        <v>1.052732318977308</v>
+        <v>1.023928368983999</v>
       </c>
       <c r="M25">
-        <v>1.057759401403743</v>
+        <v>1.030059855548435</v>
       </c>
       <c r="N25">
-        <v>1.017204003068015</v>
+        <v>1.00867892177848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9985035429967245</v>
+        <v>0.9959039191706197</v>
       </c>
       <c r="D2">
-        <v>1.019529002064315</v>
+        <v>1.01758228637997</v>
       </c>
       <c r="E2">
-        <v>1.018035286126038</v>
+        <v>1.022147862726583</v>
       </c>
       <c r="F2">
-        <v>1.024470152336908</v>
+        <v>1.029810628195832</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042659745800403</v>
+        <v>1.043165217550459</v>
       </c>
       <c r="J2">
-        <v>1.020729105146069</v>
+        <v>1.018207837365362</v>
       </c>
       <c r="K2">
-        <v>1.030722809501868</v>
+        <v>1.028801988128762</v>
       </c>
       <c r="L2">
-        <v>1.029248951182145</v>
+        <v>1.033307030426586</v>
       </c>
       <c r="M2">
-        <v>1.035598788732321</v>
+        <v>1.040869706830964</v>
       </c>
       <c r="N2">
-        <v>1.010448671740018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010062458404582</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040918021923356</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031435655266959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003949830146761</v>
+        <v>0.9992421515595656</v>
       </c>
       <c r="D3">
-        <v>1.02352606208824</v>
+        <v>1.019679733074746</v>
       </c>
       <c r="E3">
-        <v>1.022642959773052</v>
+        <v>1.025304376382199</v>
       </c>
       <c r="F3">
-        <v>1.029218864964193</v>
+        <v>1.032681854773239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043885547501043</v>
+        <v>1.043668709146103</v>
       </c>
       <c r="J3">
-        <v>1.024333394908173</v>
+        <v>1.019753497629972</v>
       </c>
       <c r="K3">
-        <v>1.033866517999194</v>
+        <v>1.030066851142512</v>
       </c>
       <c r="L3">
-        <v>1.032994090582332</v>
+        <v>1.035623405363225</v>
       </c>
       <c r="M3">
-        <v>1.039491051666958</v>
+        <v>1.042912968701333</v>
       </c>
       <c r="N3">
-        <v>1.011687490023498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010583791034401</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042535123952235</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032327348495013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007392221009142</v>
+        <v>1.00136663961797</v>
       </c>
       <c r="D4">
-        <v>1.026055529876862</v>
+        <v>1.021017840801319</v>
       </c>
       <c r="E4">
-        <v>1.02556682441839</v>
+        <v>1.027320614252312</v>
       </c>
       <c r="F4">
-        <v>1.0322288992237</v>
+        <v>1.034515460793448</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044649207626533</v>
+        <v>1.043979667566729</v>
       </c>
       <c r="J4">
-        <v>1.02660870476701</v>
+        <v>1.020735451102594</v>
       </c>
       <c r="K4">
-        <v>1.035849337951158</v>
+        <v>1.030869048035237</v>
       </c>
       <c r="L4">
-        <v>1.035366170326413</v>
+        <v>1.037100117004515</v>
       </c>
       <c r="M4">
-        <v>1.041953308611568</v>
+        <v>1.044214424079343</v>
       </c>
       <c r="N4">
-        <v>1.012468940723256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010914953588334</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043565134996873</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032895484983947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008820653325849</v>
+        <v>1.002254062870998</v>
       </c>
       <c r="D5">
-        <v>1.027105798647819</v>
+        <v>1.021579618062023</v>
       </c>
       <c r="E5">
-        <v>1.026782778306771</v>
+        <v>1.028163112706261</v>
       </c>
       <c r="F5">
-        <v>1.03347989926624</v>
+        <v>1.03528161212315</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044963369743045</v>
+        <v>1.044108466276799</v>
       </c>
       <c r="J5">
-        <v>1.027552125981138</v>
+        <v>1.021146512449807</v>
       </c>
       <c r="K5">
-        <v>1.036671043898208</v>
+        <v>1.031206139000606</v>
       </c>
       <c r="L5">
-        <v>1.036351582981692</v>
+        <v>1.037716726421156</v>
       </c>
       <c r="M5">
-        <v>1.042975465506767</v>
+        <v>1.04475767353303</v>
       </c>
       <c r="N5">
-        <v>1.012792807850755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011053776646816</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043995078570771</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033141078053677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009059416762716</v>
+        <v>1.00240571909422</v>
       </c>
       <c r="D6">
-        <v>1.027281388123405</v>
+        <v>1.021678197567376</v>
       </c>
       <c r="E6">
-        <v>1.026986181487673</v>
+        <v>1.028305420908518</v>
       </c>
       <c r="F6">
-        <v>1.033689118778839</v>
+        <v>1.03541110197043</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045015720651094</v>
+        <v>1.044131820952609</v>
       </c>
       <c r="J6">
-        <v>1.027709775367101</v>
+        <v>1.02121834072456</v>
       </c>
       <c r="K6">
-        <v>1.036808327727465</v>
+        <v>1.031266980276911</v>
       </c>
       <c r="L6">
-        <v>1.036516358638083</v>
+        <v>1.037821147583625</v>
       </c>
       <c r="M6">
-        <v>1.043146343292381</v>
+        <v>1.044849771882076</v>
       </c>
       <c r="N6">
-        <v>1.012846918328774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011078281757965</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044067967884192</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033192924387707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007411380418192</v>
+        <v>1.001386937573874</v>
       </c>
       <c r="D7">
-        <v>1.026069614526434</v>
+        <v>1.02103745419133</v>
       </c>
       <c r="E7">
-        <v>1.025583123363712</v>
+        <v>1.027335140522355</v>
       </c>
       <c r="F7">
-        <v>1.032245671042</v>
+        <v>1.0345288788663</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044653432274264</v>
+        <v>1.043986584554118</v>
       </c>
       <c r="J7">
-        <v>1.026621361709923</v>
+        <v>1.020749154036972</v>
       </c>
       <c r="K7">
-        <v>1.035860363726619</v>
+        <v>1.030885518077193</v>
       </c>
       <c r="L7">
-        <v>1.035379383264619</v>
+        <v>1.037111584673746</v>
       </c>
       <c r="M7">
-        <v>1.041967017064893</v>
+        <v>1.044224825487023</v>
       </c>
       <c r="N7">
-        <v>1.012473286325538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010920256950353</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043573366978799</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032927429537381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000361568882704</v>
+        <v>0.997050020100919</v>
       </c>
       <c r="D8">
-        <v>1.020891919617942</v>
+        <v>1.018310022061457</v>
       </c>
       <c r="E8">
-        <v>1.019604741927814</v>
+        <v>1.023224253243178</v>
       </c>
       <c r="F8">
-        <v>1.026088351924009</v>
+        <v>1.030789995655133</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043080237866711</v>
+        <v>1.043344856934748</v>
       </c>
       <c r="J8">
-        <v>1.021959287992322</v>
+        <v>1.01874414245091</v>
       </c>
       <c r="K8">
-        <v>1.031796141727098</v>
+        <v>1.029247555314962</v>
       </c>
       <c r="L8">
-        <v>1.03052554457577</v>
+        <v>1.034098564650111</v>
       </c>
       <c r="M8">
-        <v>1.036926165371119</v>
+        <v>1.041568443305469</v>
       </c>
       <c r="N8">
-        <v>1.010871612606333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010244241037959</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04147102446186</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031773838064312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9872736822273581</v>
+        <v>0.9891112652739842</v>
       </c>
       <c r="D9">
-        <v>1.011308275739385</v>
+        <v>1.01333431064763</v>
       </c>
       <c r="E9">
-        <v>1.008602348303508</v>
+        <v>1.015766409491686</v>
       </c>
       <c r="F9">
-        <v>1.014729720746315</v>
+        <v>1.024003950618857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040073073512481</v>
+        <v>1.042090661344011</v>
       </c>
       <c r="J9">
-        <v>1.013283984541828</v>
+        <v>1.015054480347434</v>
       </c>
       <c r="K9">
-        <v>1.024220510171873</v>
+        <v>1.026214690013539</v>
       </c>
       <c r="L9">
-        <v>1.02155738333632</v>
+        <v>1.028608763850294</v>
       </c>
       <c r="M9">
-        <v>1.02758825486708</v>
+        <v>1.036719225455929</v>
       </c>
       <c r="N9">
-        <v>1.007886830326499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008998835169495</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037633188596916</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029626159789299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9780416087258429</v>
+        <v>0.9836561634181734</v>
       </c>
       <c r="D10">
-        <v>1.004573618960027</v>
+        <v>1.009944214472367</v>
       </c>
       <c r="E10">
-        <v>1.000913069945622</v>
+        <v>1.010804191209402</v>
       </c>
       <c r="F10">
-        <v>1.006772477091045</v>
+        <v>1.019516195227947</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037896780537874</v>
+        <v>1.041200900238163</v>
       </c>
       <c r="J10">
-        <v>1.007154362332935</v>
+        <v>1.012533580588041</v>
       </c>
       <c r="K10">
-        <v>1.018860783416446</v>
+        <v>1.024136214647948</v>
       </c>
       <c r="L10">
-        <v>1.015265858179022</v>
+        <v>1.024981074749691</v>
       </c>
       <c r="M10">
-        <v>1.021020519614183</v>
+        <v>1.033541798069886</v>
       </c>
       <c r="N10">
-        <v>1.005775491773611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008150216947183</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035170099061015</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028173498708808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9739090242935046</v>
+        <v>0.9815852272910711</v>
       </c>
       <c r="D11">
-        <v>1.001566505961851</v>
+        <v>1.008716537095031</v>
       </c>
       <c r="E11">
-        <v>0.9974896704888923</v>
+        <v>1.009913102277936</v>
       </c>
       <c r="F11">
-        <v>1.003225071596066</v>
+        <v>1.018943961992281</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036910394106553</v>
+        <v>1.041002278241237</v>
       </c>
       <c r="J11">
-        <v>1.00440899364906</v>
+        <v>1.011744667988417</v>
       </c>
       <c r="K11">
-        <v>1.016458940617216</v>
+        <v>1.023475923354445</v>
       </c>
       <c r="L11">
-        <v>1.012459083732646</v>
+        <v>1.024650462472823</v>
       </c>
       <c r="M11">
-        <v>1.018086423001352</v>
+        <v>1.033517252343837</v>
       </c>
       <c r="N11">
-        <v>1.004829406388821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007903543650307</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035588341583409</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027739802386211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9723523203544844</v>
+        <v>0.9809325121558075</v>
       </c>
       <c r="D12">
-        <v>1.000435025042338</v>
+        <v>1.008347026318176</v>
       </c>
       <c r="E12">
-        <v>0.9962030456827164</v>
+        <v>1.010065444842934</v>
       </c>
       <c r="F12">
-        <v>1.001891116129898</v>
+        <v>1.019252255441608</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036537076329902</v>
+        <v>1.040999974707569</v>
       </c>
       <c r="J12">
-        <v>1.003374686946123</v>
+        <v>1.011566353504707</v>
       </c>
       <c r="K12">
-        <v>1.015553895402113</v>
+        <v>1.023316038832306</v>
       </c>
       <c r="L12">
-        <v>1.011403352678007</v>
+        <v>1.025002314494187</v>
       </c>
       <c r="M12">
-        <v>1.016982174802673</v>
+        <v>1.034019679417893</v>
       </c>
       <c r="N12">
-        <v>1.004472916274347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007858568954156</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036312981825601</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027626756769959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9726872433036193</v>
+        <v>0.9813361868838423</v>
       </c>
       <c r="D13">
-        <v>1.000678402190077</v>
+        <v>1.008625398087263</v>
       </c>
       <c r="E13">
-        <v>0.996479726378605</v>
+        <v>1.011038406809277</v>
       </c>
       <c r="F13">
-        <v>1.002178008070617</v>
+        <v>1.020273736471765</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036617473189931</v>
+        <v>1.041158582145893</v>
       </c>
       <c r="J13">
-        <v>1.003597222370747</v>
+        <v>1.011856391699342</v>
       </c>
       <c r="K13">
-        <v>1.015748626346975</v>
+        <v>1.023545708599215</v>
       </c>
       <c r="L13">
-        <v>1.011630419701567</v>
+        <v>1.025913806143861</v>
       </c>
       <c r="M13">
-        <v>1.017219705403363</v>
+        <v>1.034979799153201</v>
       </c>
       <c r="N13">
-        <v>1.00454961897478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007970234484061</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037349323612433</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027786626609974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9737807973676413</v>
+        <v>0.9820977174273648</v>
       </c>
       <c r="D14">
-        <v>1.001473278403536</v>
+        <v>1.009115268968474</v>
       </c>
       <c r="E14">
-        <v>0.997383629685836</v>
+        <v>1.012083852168181</v>
       </c>
       <c r="F14">
-        <v>1.003115144755417</v>
+        <v>1.021305730868056</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03687967882157</v>
+        <v>1.041342173509907</v>
       </c>
       <c r="J14">
-        <v>1.004323799634693</v>
+        <v>1.01227144305882</v>
       </c>
       <c r="K14">
-        <v>1.016384396696227</v>
+        <v>1.023884054058933</v>
       </c>
       <c r="L14">
-        <v>1.012372090050317</v>
+        <v>1.02679810170845</v>
       </c>
       <c r="M14">
-        <v>1.017995444238453</v>
+        <v>1.035853192058338</v>
       </c>
       <c r="N14">
-        <v>1.004800044005093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008119469529519</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038213275489147</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028027290925427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9744516558713477</v>
+        <v>0.982516158486998</v>
       </c>
       <c r="D15">
-        <v>1.001961079482584</v>
+        <v>1.009380321928604</v>
       </c>
       <c r="E15">
-        <v>0.9979385351355946</v>
+        <v>1.012533161656984</v>
       </c>
       <c r="F15">
-        <v>1.003690355945486</v>
+        <v>1.021731731822239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03704030423845</v>
+        <v>1.041425110839616</v>
       </c>
       <c r="J15">
-        <v>1.00476951249842</v>
+        <v>1.012479203748671</v>
       </c>
       <c r="K15">
-        <v>1.016774384723975</v>
+        <v>1.024056523946629</v>
       </c>
       <c r="L15">
-        <v>1.012827288195196</v>
+        <v>1.027151892419546</v>
       </c>
       <c r="M15">
-        <v>1.01847146888862</v>
+        <v>1.036185417041764</v>
       </c>
       <c r="N15">
-        <v>1.004953658116167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008191708401589</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038513441501998</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.02815516346029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.978312913790979</v>
+        <v>0.984739248232653</v>
       </c>
       <c r="D16">
-        <v>1.004771204636088</v>
+        <v>1.010756833902876</v>
       </c>
       <c r="E16">
-        <v>1.001138215051009</v>
+        <v>1.014452020575292</v>
       </c>
       <c r="F16">
-        <v>1.007005678128177</v>
+        <v>1.023462221192658</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037961289758461</v>
+        <v>1.041783992932906</v>
       </c>
       <c r="J16">
-        <v>1.00733457078691</v>
+        <v>1.013492935286262</v>
       </c>
       <c r="K16">
-        <v>1.019018418395226</v>
+        <v>1.024898433597819</v>
       </c>
       <c r="L16">
-        <v>1.01545033162365</v>
+        <v>1.028529225353989</v>
       </c>
       <c r="M16">
-        <v>1.02121327500982</v>
+        <v>1.037384923869191</v>
       </c>
       <c r="N16">
-        <v>1.005837585279369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008530528690581</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039422773644919</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028753634047107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9806978822675813</v>
+        <v>0.9860492253542498</v>
       </c>
       <c r="D17">
-        <v>1.006508998000045</v>
+        <v>1.011559456405693</v>
       </c>
       <c r="E17">
-        <v>1.003119529130804</v>
+        <v>1.015377730971839</v>
       </c>
       <c r="F17">
-        <v>1.009057348299511</v>
+        <v>1.024245875579623</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038526996307611</v>
+        <v>1.041961328327539</v>
       </c>
       <c r="J17">
-        <v>1.008918567573214</v>
+        <v>1.014054272627651</v>
       </c>
       <c r="K17">
-        <v>1.020403855365584</v>
+        <v>1.02536779732096</v>
       </c>
       <c r="L17">
-        <v>1.017073081895685</v>
+        <v>1.029121400175268</v>
       </c>
       <c r="M17">
-        <v>1.022908411484199</v>
+        <v>1.03784173496073</v>
       </c>
       <c r="N17">
-        <v>1.006383325466149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008712566268855</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03965468055061</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029088112381187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9820760652564333</v>
+        <v>0.9866899563768196</v>
       </c>
       <c r="D18">
-        <v>1.007513907226635</v>
+        <v>1.011931110823959</v>
       </c>
       <c r="E18">
-        <v>1.004266202677025</v>
+        <v>1.015476497029645</v>
       </c>
       <c r="F18">
-        <v>1.010244295024521</v>
+        <v>1.024220170787686</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038852736983897</v>
+        <v>1.0419912574643</v>
       </c>
       <c r="J18">
-        <v>1.009833747785919</v>
+        <v>1.014265406073838</v>
       </c>
       <c r="K18">
-        <v>1.021204189169832</v>
+        <v>1.025547027464177</v>
       </c>
       <c r="L18">
-        <v>1.018011700008741</v>
+        <v>1.029033328349527</v>
       </c>
       <c r="M18">
-        <v>1.02388851088055</v>
+        <v>1.037633530686346</v>
       </c>
       <c r="N18">
-        <v>1.00669859278041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008771539954321</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039252088898884</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.02920308750443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9825438373379558</v>
+        <v>0.98673473209459</v>
       </c>
       <c r="D19">
-        <v>1.007855101226299</v>
+        <v>1.011928779755966</v>
       </c>
       <c r="E19">
-        <v>1.004655689874177</v>
+        <v>1.014819364690128</v>
       </c>
       <c r="F19">
-        <v>1.010647386735936</v>
+        <v>1.02345422673037</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03896309836792</v>
+        <v>1.041896619646261</v>
       </c>
       <c r="J19">
-        <v>1.010144343121944</v>
+        <v>1.014170805666994</v>
       </c>
       <c r="K19">
-        <v>1.021475785511371</v>
+        <v>1.025481278882786</v>
       </c>
       <c r="L19">
-        <v>1.018330426257977</v>
+        <v>1.028323908576633</v>
       </c>
       <c r="M19">
-        <v>1.024221257440389</v>
+        <v>1.036817588057133</v>
       </c>
       <c r="N19">
-        <v>1.00680558108561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008725387993096</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038280811149892</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029163056750967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9804433446620232</v>
+        <v>0.9850900609049456</v>
       </c>
       <c r="D20">
-        <v>1.006323456621247</v>
+        <v>1.010850437822572</v>
       </c>
       <c r="E20">
-        <v>1.002907889492754</v>
+        <v>1.012100185148977</v>
       </c>
       <c r="F20">
-        <v>1.008838239669364</v>
+        <v>1.020689988998577</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038466740686609</v>
+        <v>1.041448225375716</v>
       </c>
       <c r="J20">
-        <v>1.008749529480949</v>
+        <v>1.01320808634364</v>
       </c>
       <c r="K20">
-        <v>1.020256019577927</v>
+        <v>1.024705141354517</v>
       </c>
       <c r="L20">
-        <v>1.016899799162193</v>
+        <v>1.025933552758774</v>
       </c>
       <c r="M20">
-        <v>1.0227274394183</v>
+        <v>1.034378531156191</v>
       </c>
       <c r="N20">
-        <v>1.006325090549585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008379393036227</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035821696533221</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028618242549451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9734593831643836</v>
+        <v>0.9809348697881105</v>
       </c>
       <c r="D21">
-        <v>1.00123961468359</v>
+        <v>1.008263026048648</v>
       </c>
       <c r="E21">
-        <v>0.9971178751028333</v>
+        <v>1.008150027404541</v>
       </c>
       <c r="F21">
-        <v>1.002839639416385</v>
+        <v>1.017070881261903</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03680265975448</v>
+        <v>1.040724826482167</v>
       </c>
       <c r="J21">
-        <v>1.004110249735215</v>
+        <v>1.011251903236895</v>
       </c>
       <c r="K21">
-        <v>1.016197540181099</v>
+        <v>1.023089525827572</v>
       </c>
       <c r="L21">
-        <v>1.012154056725835</v>
+        <v>1.022978622771648</v>
       </c>
       <c r="M21">
-        <v>1.017767412927906</v>
+        <v>1.031735900598542</v>
       </c>
       <c r="N21">
-        <v>1.004726442497008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007717287402273</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033689194369615</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027479174665144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9689420845753759</v>
+        <v>0.9782861843135603</v>
       </c>
       <c r="D22">
-        <v>0.9979588095325805</v>
+        <v>1.006615461988378</v>
       </c>
       <c r="E22">
-        <v>0.9933900411118356</v>
+        <v>1.005706820916249</v>
       </c>
       <c r="F22">
-        <v>0.9989732749058875</v>
+        <v>1.01484659713005</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035716115886955</v>
+        <v>1.040259819576873</v>
       </c>
       <c r="J22">
-        <v>1.001108664472042</v>
+        <v>1.010009913930756</v>
       </c>
       <c r="K22">
-        <v>1.013570811545797</v>
+        <v>1.022056994665304</v>
       </c>
       <c r="L22">
-        <v>1.009093589771864</v>
+        <v>1.021166066005839</v>
       </c>
       <c r="M22">
-        <v>1.014565098897052</v>
+        <v>1.030129568055735</v>
       </c>
       <c r="N22">
-        <v>1.003691804980799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007297109001087</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032417876548894</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026735474082343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9713492504021829</v>
+        <v>0.9796873735665943</v>
       </c>
       <c r="D23">
-        <v>0.9997063250513084</v>
+        <v>1.007480685341699</v>
       </c>
       <c r="E23">
-        <v>0.9953748491514851</v>
+        <v>1.007002232277505</v>
       </c>
       <c r="F23">
-        <v>1.001032246184953</v>
+        <v>1.016026014900174</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036296042502285</v>
+        <v>1.040503438541253</v>
       </c>
       <c r="J23">
-        <v>1.002708193374725</v>
+        <v>1.01066333285737</v>
       </c>
       <c r="K23">
-        <v>1.014970655500206</v>
+        <v>1.022595978263691</v>
       </c>
       <c r="L23">
-        <v>1.010723541002133</v>
+        <v>1.022126610432408</v>
       </c>
       <c r="M23">
-        <v>1.016270943699866</v>
+        <v>1.030980922061258</v>
       </c>
       <c r="N23">
-        <v>1.004243184328581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007517415218656</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033091673506319</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027106834939426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9805583991007643</v>
+        <v>0.9851141850130291</v>
       </c>
       <c r="D24">
-        <v>1.006407321658046</v>
+        <v>1.010851490493934</v>
       </c>
       <c r="E24">
-        <v>1.003003548060634</v>
+        <v>1.012033126122505</v>
       </c>
       <c r="F24">
-        <v>1.008937275510002</v>
+        <v>1.020605919791785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038493980645702</v>
+        <v>1.041433071847644</v>
       </c>
       <c r="J24">
-        <v>1.008825937459945</v>
+        <v>1.013197543467137</v>
       </c>
       <c r="K24">
-        <v>1.020322844159967</v>
+        <v>1.024690684500426</v>
       </c>
       <c r="L24">
-        <v>1.016978122541561</v>
+        <v>1.0258521712504</v>
       </c>
       <c r="M24">
-        <v>1.022809239559178</v>
+        <v>1.034280584073954</v>
       </c>
       <c r="N24">
-        <v>1.006351413817589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008373086835963</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035703157115444</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028580346269823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9907418864237829</v>
+        <v>0.9912119605026315</v>
       </c>
       <c r="D25">
-        <v>1.013843949992687</v>
+        <v>1.014657823199042</v>
       </c>
       <c r="E25">
-        <v>1.011506082406193</v>
+        <v>1.017725613186634</v>
       </c>
       <c r="F25">
-        <v>1.017730688811374</v>
+        <v>1.025787060269935</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040879672784013</v>
+        <v>1.042436820634947</v>
       </c>
       <c r="J25">
-        <v>1.015584891167641</v>
+        <v>1.016038740386369</v>
       </c>
       <c r="K25">
-        <v>1.026231091548062</v>
+        <v>1.027032778200638</v>
       </c>
       <c r="L25">
-        <v>1.023928368983999</v>
+        <v>1.030054855264946</v>
       </c>
       <c r="M25">
-        <v>1.030059855548435</v>
+        <v>1.037997832370371</v>
       </c>
       <c r="N25">
-        <v>1.00867892177848</v>
+        <v>1.00933226804891</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03864512357052</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030233469326382</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959039191706197</v>
+        <v>0.9963329678309792</v>
       </c>
       <c r="D2">
-        <v>1.01758228637997</v>
+        <v>1.017741702855185</v>
       </c>
       <c r="E2">
-        <v>1.022147862726583</v>
+        <v>1.022259319604268</v>
       </c>
       <c r="F2">
-        <v>1.029810628195832</v>
+        <v>1.029943704344822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043165217550459</v>
+        <v>1.043236346658192</v>
       </c>
       <c r="J2">
-        <v>1.018207837365362</v>
+        <v>1.018623915147006</v>
       </c>
       <c r="K2">
-        <v>1.028801988128762</v>
+        <v>1.028959279444269</v>
       </c>
       <c r="L2">
-        <v>1.033307030426586</v>
+        <v>1.033417017999001</v>
       </c>
       <c r="M2">
-        <v>1.040869706830964</v>
+        <v>1.04100106123831</v>
       </c>
       <c r="N2">
-        <v>1.010062458404582</v>
+        <v>1.012199367752518</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040918021923356</v>
+        <v>1.041021980061989</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031435655266959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031555732749057</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019854054779506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9992421515595656</v>
+        <v>0.9995595367697245</v>
       </c>
       <c r="D3">
-        <v>1.019679733074746</v>
+        <v>1.019697876228748</v>
       </c>
       <c r="E3">
-        <v>1.025304376382199</v>
+        <v>1.025382057854693</v>
       </c>
       <c r="F3">
-        <v>1.032681854773239</v>
+        <v>1.032774397427544</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043668709146103</v>
+        <v>1.043681857124624</v>
       </c>
       <c r="J3">
-        <v>1.019753497629972</v>
+        <v>1.020062216463264</v>
       </c>
       <c r="K3">
-        <v>1.030066851142512</v>
+        <v>1.030084773163902</v>
       </c>
       <c r="L3">
-        <v>1.035623405363225</v>
+        <v>1.035700152953169</v>
       </c>
       <c r="M3">
-        <v>1.042912968701333</v>
+        <v>1.043004418433874</v>
       </c>
       <c r="N3">
-        <v>1.010583791034401</v>
+        <v>1.012585192747618</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042535123952235</v>
+        <v>1.042607500076814</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032327348495013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032348601976043</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020054762158463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00136663961797</v>
+        <v>1.001613680041813</v>
       </c>
       <c r="D4">
-        <v>1.021017840801319</v>
+        <v>1.020946531616397</v>
       </c>
       <c r="E4">
-        <v>1.027320614252312</v>
+        <v>1.027377148770103</v>
       </c>
       <c r="F4">
-        <v>1.034515460793448</v>
+        <v>1.034582475687134</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043979667566729</v>
+        <v>1.043956050876583</v>
       </c>
       <c r="J4">
-        <v>1.020735451102594</v>
+        <v>1.020976197599106</v>
       </c>
       <c r="K4">
-        <v>1.030869048035237</v>
+        <v>1.030798556361641</v>
       </c>
       <c r="L4">
-        <v>1.037100117004515</v>
+        <v>1.037156013254586</v>
       </c>
       <c r="M4">
-        <v>1.044214424079343</v>
+        <v>1.044280695281372</v>
       </c>
       <c r="N4">
-        <v>1.010914953588334</v>
+        <v>1.012830372541201</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043565134996873</v>
+        <v>1.043617583986241</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032895484983947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032854303368551</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020179619720949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002254062870998</v>
+        <v>1.002471886102525</v>
       </c>
       <c r="D5">
-        <v>1.021579618062023</v>
+        <v>1.021471094506258</v>
       </c>
       <c r="E5">
-        <v>1.028163112706261</v>
+        <v>1.02821089628801</v>
       </c>
       <c r="F5">
-        <v>1.03528161212315</v>
+        <v>1.035338025682162</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044108466276799</v>
+        <v>1.044069538703217</v>
       </c>
       <c r="J5">
-        <v>1.021146512449807</v>
+        <v>1.02135895028456</v>
       </c>
       <c r="K5">
-        <v>1.031206139000606</v>
+        <v>1.031098826949894</v>
       </c>
       <c r="L5">
-        <v>1.037716726421156</v>
+        <v>1.037763985028715</v>
       </c>
       <c r="M5">
-        <v>1.04475767353303</v>
+        <v>1.044813477718852</v>
       </c>
       <c r="N5">
-        <v>1.011053776646816</v>
+        <v>1.012933210324339</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043995078570771</v>
+        <v>1.044039243628155</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033141078053677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033074571119116</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020231976388682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00240571909422</v>
+        <v>1.002618560597778</v>
       </c>
       <c r="D6">
-        <v>1.021678197567376</v>
+        <v>1.021563373170085</v>
       </c>
       <c r="E6">
-        <v>1.028305420908518</v>
+        <v>1.028351715733847</v>
       </c>
       <c r="F6">
-        <v>1.03541110197043</v>
+        <v>1.03546570793654</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044131820952609</v>
+        <v>1.04409029556415</v>
       </c>
       <c r="J6">
-        <v>1.02121834072456</v>
+        <v>1.021425946787021</v>
       </c>
       <c r="K6">
-        <v>1.031266980276911</v>
+        <v>1.031153431935456</v>
       </c>
       <c r="L6">
-        <v>1.037821147583625</v>
+        <v>1.037866936138834</v>
       </c>
       <c r="M6">
-        <v>1.044849771882076</v>
+        <v>1.044903790698712</v>
       </c>
       <c r="N6">
-        <v>1.011078281757965</v>
+        <v>1.012951408427483</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044067967884192</v>
+        <v>1.044110719944197</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033192924387707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03312287565505</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020241978447826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001386937573874</v>
+        <v>1.001640816299587</v>
       </c>
       <c r="D7">
-        <v>1.02103745419133</v>
+        <v>1.020970534882488</v>
       </c>
       <c r="E7">
-        <v>1.027335140522355</v>
+        <v>1.027393963005527</v>
       </c>
       <c r="F7">
-        <v>1.0345288788663</v>
+        <v>1.034598261552322</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043986584554118</v>
+        <v>1.04396491581736</v>
       </c>
       <c r="J7">
-        <v>1.020749154036972</v>
+        <v>1.02099656739506</v>
       </c>
       <c r="K7">
-        <v>1.030885518077193</v>
+        <v>1.030819365655866</v>
       </c>
       <c r="L7">
-        <v>1.037111584673746</v>
+        <v>1.037169743304895</v>
       </c>
       <c r="M7">
-        <v>1.044224825487023</v>
+        <v>1.044293438488171</v>
       </c>
       <c r="N7">
-        <v>1.010920256950353</v>
+        <v>1.012862233628115</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043573366978799</v>
+        <v>1.043627669336571</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032927429537381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032891312812227</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020185199773774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997050020100919</v>
+        <v>0.9974636220267419</v>
       </c>
       <c r="D8">
-        <v>1.018310022061457</v>
+        <v>1.018436755098191</v>
       </c>
       <c r="E8">
-        <v>1.023224253243178</v>
+        <v>1.023331837564167</v>
       </c>
       <c r="F8">
-        <v>1.030789995655133</v>
+        <v>1.030917148554959</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043344856934748</v>
+        <v>1.043403063122107</v>
       </c>
       <c r="J8">
-        <v>1.01874414245091</v>
+        <v>1.019145655922488</v>
       </c>
       <c r="K8">
-        <v>1.029247555314962</v>
+        <v>1.029372648334174</v>
       </c>
       <c r="L8">
-        <v>1.034098564650111</v>
+        <v>1.034204773381213</v>
       </c>
       <c r="M8">
-        <v>1.041568443305469</v>
+        <v>1.041694000074241</v>
       </c>
       <c r="N8">
-        <v>1.010244241037959</v>
+        <v>1.012418605463254</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04147102446186</v>
+        <v>1.041570394085552</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031773838064312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031873412408836</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019931633866934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9891112652739842</v>
+        <v>0.9897982551313702</v>
       </c>
       <c r="D9">
-        <v>1.01333431064763</v>
+        <v>1.013802005604543</v>
       </c>
       <c r="E9">
-        <v>1.015766409491686</v>
+        <v>1.015957888616838</v>
       </c>
       <c r="F9">
-        <v>1.024003950618857</v>
+        <v>1.024230429443487</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042090661344011</v>
+        <v>1.042288590553221</v>
       </c>
       <c r="J9">
-        <v>1.015054480347434</v>
+        <v>1.015716479071762</v>
       </c>
       <c r="K9">
-        <v>1.026214690013539</v>
+        <v>1.026675054602801</v>
       </c>
       <c r="L9">
-        <v>1.028608763850294</v>
+        <v>1.02879725914887</v>
       </c>
       <c r="M9">
-        <v>1.036719225455929</v>
+        <v>1.036942247239849</v>
       </c>
       <c r="N9">
-        <v>1.008998835169495</v>
+        <v>1.011507660251097</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037633188596916</v>
+        <v>1.037809696069578</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029626159789299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029962518720336</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019435690776545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9836561634181734</v>
+        <v>0.9845678904703007</v>
       </c>
       <c r="D10">
-        <v>1.009944214472367</v>
+        <v>1.01067067279983</v>
       </c>
       <c r="E10">
-        <v>1.010804191209402</v>
+        <v>1.011066596422487</v>
       </c>
       <c r="F10">
-        <v>1.019516195227947</v>
+        <v>1.01982391260133</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041200900238163</v>
+        <v>1.041505223656112</v>
       </c>
       <c r="J10">
-        <v>1.012533580588041</v>
+        <v>1.013407452278003</v>
       </c>
       <c r="K10">
-        <v>1.024136214647948</v>
+        <v>1.024849901134883</v>
       </c>
       <c r="L10">
-        <v>1.024981074749691</v>
+        <v>1.025238874049954</v>
       </c>
       <c r="M10">
-        <v>1.033541798069886</v>
+        <v>1.033844233129157</v>
       </c>
       <c r="N10">
-        <v>1.008150216947183</v>
+        <v>1.011006730315491</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035170099061015</v>
+        <v>1.035409442841762</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028173498708808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028690651847526</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019093216106816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9815852272910711</v>
+        <v>0.9826276954654853</v>
       </c>
       <c r="D11">
-        <v>1.008716537095031</v>
+        <v>1.009567978775238</v>
       </c>
       <c r="E11">
-        <v>1.009913102277936</v>
+        <v>1.010213743922431</v>
       </c>
       <c r="F11">
-        <v>1.018943961992281</v>
+        <v>1.019296701767553</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041002278241237</v>
+        <v>1.041358225575041</v>
       </c>
       <c r="J11">
-        <v>1.011744667988417</v>
+        <v>1.012741476718184</v>
       </c>
       <c r="K11">
-        <v>1.023475923354445</v>
+        <v>1.024311684934317</v>
       </c>
       <c r="L11">
-        <v>1.024650462472823</v>
+        <v>1.02494558066712</v>
       </c>
       <c r="M11">
-        <v>1.033517252343837</v>
+        <v>1.033863660296521</v>
       </c>
       <c r="N11">
-        <v>1.007903543650307</v>
+        <v>1.011070835730825</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035588341583409</v>
+        <v>1.035862346174436</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027739802386211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028346479403651</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019015863107039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9809325121558075</v>
+        <v>0.9820202231946789</v>
       </c>
       <c r="D12">
-        <v>1.008347026318176</v>
+        <v>1.009238393707112</v>
       </c>
       <c r="E12">
-        <v>1.010065444842934</v>
+        <v>1.010376203433033</v>
       </c>
       <c r="F12">
-        <v>1.019252255441608</v>
+        <v>1.019619531835146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040999974707569</v>
+        <v>1.041372076061781</v>
       </c>
       <c r="J12">
-        <v>1.011566353504707</v>
+        <v>1.012605505003269</v>
       </c>
       <c r="K12">
-        <v>1.023316038832306</v>
+        <v>1.024190715439917</v>
       </c>
       <c r="L12">
-        <v>1.025002314494187</v>
+        <v>1.025307275606181</v>
       </c>
       <c r="M12">
-        <v>1.034019679417893</v>
+        <v>1.034380264203993</v>
       </c>
       <c r="N12">
-        <v>1.007858568954156</v>
+        <v>1.011147043649678</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036312981825601</v>
+        <v>1.036598103095902</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027626756769959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02826095043613</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019009471769289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9813361868838423</v>
+        <v>0.9823948515414982</v>
       </c>
       <c r="D13">
-        <v>1.008625398087263</v>
+        <v>1.009485703802369</v>
       </c>
       <c r="E13">
-        <v>1.011038406809277</v>
+        <v>1.011335311192751</v>
       </c>
       <c r="F13">
-        <v>1.020273736471765</v>
+        <v>1.02062934107067</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041158582145893</v>
+        <v>1.041517132522179</v>
       </c>
       <c r="J13">
-        <v>1.011856391699342</v>
+        <v>1.012868020730808</v>
       </c>
       <c r="K13">
-        <v>1.023545708599215</v>
+        <v>1.024389970078231</v>
       </c>
       <c r="L13">
-        <v>1.025913806143861</v>
+        <v>1.026205203819952</v>
       </c>
       <c r="M13">
-        <v>1.034979799153201</v>
+        <v>1.035328963157893</v>
       </c>
       <c r="N13">
-        <v>1.007970234484061</v>
+        <v>1.011204675354674</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037349323612433</v>
+        <v>1.037625344675965</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027786626609974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028399070234646</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019060460013259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9820977174273648</v>
+        <v>0.9831026975016035</v>
       </c>
       <c r="D14">
-        <v>1.009115268968474</v>
+        <v>1.009921989849046</v>
       </c>
       <c r="E14">
-        <v>1.012083852168181</v>
+        <v>1.01236102000397</v>
       </c>
       <c r="F14">
-        <v>1.021305730868056</v>
+        <v>1.021641598735529</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041342173509907</v>
+        <v>1.04167798707456</v>
       </c>
       <c r="J14">
-        <v>1.01227144305882</v>
+        <v>1.013232405720375</v>
       </c>
       <c r="K14">
-        <v>1.023884054058933</v>
+        <v>1.024675913414992</v>
       </c>
       <c r="L14">
-        <v>1.02679810170845</v>
+        <v>1.027070198975941</v>
       </c>
       <c r="M14">
-        <v>1.035853192058338</v>
+        <v>1.036183059155981</v>
       </c>
       <c r="N14">
-        <v>1.008119469529519</v>
+        <v>1.011237780405536</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038213275489147</v>
+        <v>1.038474006743057</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028027290925427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028602817538785</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019122576123778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.982516158486998</v>
+        <v>0.9834924809754867</v>
       </c>
       <c r="D15">
-        <v>1.009380321928604</v>
+        <v>1.010158911028709</v>
       </c>
       <c r="E15">
-        <v>1.012533161656984</v>
+        <v>1.012800835181581</v>
       </c>
       <c r="F15">
-        <v>1.021731731822239</v>
+        <v>1.022057353569453</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041425110839616</v>
+        <v>1.041749113305773</v>
       </c>
       <c r="J15">
-        <v>1.012479203748671</v>
+        <v>1.013413134851756</v>
       </c>
       <c r="K15">
-        <v>1.024056523946629</v>
+        <v>1.024820877180407</v>
       </c>
       <c r="L15">
-        <v>1.027151892419546</v>
+        <v>1.027414708116617</v>
       </c>
       <c r="M15">
-        <v>1.036185417041764</v>
+        <v>1.036505266942147</v>
       </c>
       <c r="N15">
-        <v>1.008191708401589</v>
+        <v>1.011246060828212</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038513441501998</v>
+        <v>1.038766248386532</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02815516346029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028711809614976</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019151852229313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.984739248232653</v>
+        <v>0.9855753011218392</v>
       </c>
       <c r="D16">
-        <v>1.010756833902876</v>
+        <v>1.011396964825127</v>
       </c>
       <c r="E16">
-        <v>1.014452020575292</v>
+        <v>1.014677140119843</v>
       </c>
       <c r="F16">
-        <v>1.023462221192658</v>
+        <v>1.023738660271385</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041783992932906</v>
+        <v>1.042050547744269</v>
       </c>
       <c r="J16">
-        <v>1.013492935286262</v>
+        <v>1.014294490756544</v>
       </c>
       <c r="K16">
-        <v>1.024898433597819</v>
+        <v>1.025527365504121</v>
       </c>
       <c r="L16">
-        <v>1.028529225353989</v>
+        <v>1.02875044142111</v>
       </c>
       <c r="M16">
-        <v>1.037384923869191</v>
+        <v>1.037656678215215</v>
       </c>
       <c r="N16">
-        <v>1.008530528690581</v>
+        <v>1.011273365172991</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039422773644919</v>
+        <v>1.039637572333555</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028753634047107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029214828911799</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019282197829518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9860492253542498</v>
+        <v>0.9868145105156341</v>
       </c>
       <c r="D17">
-        <v>1.011559456405693</v>
+        <v>1.01212739391489</v>
       </c>
       <c r="E17">
-        <v>1.015377730971839</v>
+        <v>1.015582665561393</v>
       </c>
       <c r="F17">
-        <v>1.024245875579623</v>
+        <v>1.024497720750481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041961328327539</v>
+        <v>1.042198213366527</v>
       </c>
       <c r="J17">
-        <v>1.014054272627651</v>
+        <v>1.014788990509597</v>
       </c>
       <c r="K17">
-        <v>1.02536779732096</v>
+        <v>1.025926075551954</v>
       </c>
       <c r="L17">
-        <v>1.029121400175268</v>
+        <v>1.029322881437281</v>
       </c>
       <c r="M17">
-        <v>1.03784173496073</v>
+        <v>1.038089430573175</v>
       </c>
       <c r="N17">
-        <v>1.008712566268855</v>
+        <v>1.011306465951135</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03965468055061</v>
+        <v>1.039850482382958</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029088112381187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029499598187868</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01935076450545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9866899563768196</v>
+        <v>0.9874270890285439</v>
       </c>
       <c r="D18">
-        <v>1.011931110823959</v>
+        <v>1.012469985526805</v>
       </c>
       <c r="E18">
-        <v>1.015476497029645</v>
+        <v>1.015675026742959</v>
       </c>
       <c r="F18">
-        <v>1.024220170787686</v>
+        <v>1.024462663989488</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.0419912574643</v>
+        <v>1.042216511380823</v>
       </c>
       <c r="J18">
-        <v>1.014265406073838</v>
+        <v>1.014973647555931</v>
       </c>
       <c r="K18">
-        <v>1.025547027464177</v>
+        <v>1.026076887233635</v>
       </c>
       <c r="L18">
-        <v>1.029033328349527</v>
+        <v>1.029228565184972</v>
       </c>
       <c r="M18">
-        <v>1.037633530686346</v>
+        <v>1.037872089735832</v>
       </c>
       <c r="N18">
-        <v>1.008771539954321</v>
+        <v>1.011306022976237</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039252088898884</v>
+        <v>1.039440707708949</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.02920308750443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029593346560169</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01936707198023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.98673473209459</v>
+        <v>0.9874756454517521</v>
       </c>
       <c r="D19">
-        <v>1.011928779755966</v>
+        <v>1.012473021335385</v>
       </c>
       <c r="E19">
-        <v>1.014819364690128</v>
+        <v>1.015021891723639</v>
       </c>
       <c r="F19">
-        <v>1.02345422673037</v>
+        <v>1.023698924081028</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041896619646261</v>
+        <v>1.042124524294789</v>
       </c>
       <c r="J19">
-        <v>1.014170805666994</v>
+        <v>1.014882853978061</v>
       </c>
       <c r="K19">
-        <v>1.025481278882786</v>
+        <v>1.02601646446527</v>
       </c>
       <c r="L19">
-        <v>1.028323908576633</v>
+        <v>1.028523088832495</v>
       </c>
       <c r="M19">
-        <v>1.036817588057133</v>
+        <v>1.037058329082114</v>
       </c>
       <c r="N19">
-        <v>1.008725387993096</v>
+        <v>1.01125969552212</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038280811149892</v>
+        <v>1.038471217555789</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029163056750967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029557704565158</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019340621942012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9850900609049456</v>
+        <v>0.985921483718448</v>
       </c>
       <c r="D20">
-        <v>1.010850437822572</v>
+        <v>1.011494458351747</v>
       </c>
       <c r="E20">
-        <v>1.012100185148977</v>
+        <v>1.012336259336652</v>
       </c>
       <c r="F20">
-        <v>1.020689988998577</v>
+        <v>1.020968771860031</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041448225375716</v>
+        <v>1.041718117931193</v>
       </c>
       <c r="J20">
-        <v>1.01320808634364</v>
+        <v>1.014006107442927</v>
       </c>
       <c r="K20">
-        <v>1.024705141354517</v>
+        <v>1.025338158538654</v>
       </c>
       <c r="L20">
-        <v>1.025933552758774</v>
+        <v>1.026165604282588</v>
       </c>
       <c r="M20">
-        <v>1.034378531156191</v>
+        <v>1.034652666290617</v>
       </c>
       <c r="N20">
-        <v>1.008379393036227</v>
+        <v>1.011070264991113</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035821696533221</v>
+        <v>1.036038646670607</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028618242549451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029082451365244</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019187489786862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9809348697881105</v>
+        <v>0.9820416929114216</v>
       </c>
       <c r="D21">
-        <v>1.008263026048648</v>
+        <v>1.009177522923934</v>
       </c>
       <c r="E21">
-        <v>1.008150027404541</v>
+        <v>1.008479627592234</v>
       </c>
       <c r="F21">
-        <v>1.017070881261903</v>
+        <v>1.01744906574692</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040724826482167</v>
+        <v>1.041108277167315</v>
       </c>
       <c r="J21">
-        <v>1.011251903236895</v>
+        <v>1.012309916312999</v>
       </c>
       <c r="K21">
-        <v>1.023089525827572</v>
+        <v>1.023987085640429</v>
       </c>
       <c r="L21">
-        <v>1.022978622771648</v>
+        <v>1.02330211215314</v>
       </c>
       <c r="M21">
-        <v>1.031735900598542</v>
+        <v>1.032107232979382</v>
       </c>
       <c r="N21">
-        <v>1.007717287402273</v>
+        <v>1.011030904632026</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033689194369615</v>
+        <v>1.033983081802301</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027479174665144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028130756845673</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018932089139919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9782861843135603</v>
+        <v>0.9795673461435822</v>
       </c>
       <c r="D22">
-        <v>1.006615461988378</v>
+        <v>1.007701809021415</v>
       </c>
       <c r="E22">
-        <v>1.005706820916249</v>
+        <v>1.006097165213236</v>
       </c>
       <c r="F22">
-        <v>1.01484659713005</v>
+        <v>1.01528805502263</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040259819576873</v>
+        <v>1.040715488563348</v>
       </c>
       <c r="J22">
-        <v>1.010009913930756</v>
+        <v>1.011231303010752</v>
       </c>
       <c r="K22">
-        <v>1.022056994665304</v>
+        <v>1.023122220168714</v>
       </c>
       <c r="L22">
-        <v>1.021166066005839</v>
+        <v>1.021548796063371</v>
       </c>
       <c r="M22">
-        <v>1.030129568055735</v>
+        <v>1.030562616867631</v>
       </c>
       <c r="N22">
-        <v>1.007297109001087</v>
+        <v>1.0109983766925</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032417876548894</v>
+        <v>1.032760609464833</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026735474082343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027504308562785</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018766305808024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9796873735665943</v>
+        <v>0.9808641869293913</v>
       </c>
       <c r="D23">
-        <v>1.007480685341699</v>
+        <v>1.008467419776629</v>
       </c>
       <c r="E23">
-        <v>1.007002232277505</v>
+        <v>1.007355670822513</v>
       </c>
       <c r="F23">
-        <v>1.016026014900174</v>
+        <v>1.016429642414654</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040503438541253</v>
+        <v>1.040917070339043</v>
       </c>
       <c r="J23">
-        <v>1.01066333285737</v>
+        <v>1.011786844500016</v>
       </c>
       <c r="K23">
-        <v>1.022595978263691</v>
+        <v>1.023564011413157</v>
       </c>
       <c r="L23">
-        <v>1.022126610432408</v>
+        <v>1.022473336526807</v>
       </c>
       <c r="M23">
-        <v>1.030980922061258</v>
+        <v>1.031377060939631</v>
       </c>
       <c r="N23">
-        <v>1.007517415218656</v>
+        <v>1.010971184095732</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033091673506319</v>
+        <v>1.033405194064535</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027106834939426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027806008000271</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018849308710785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9851141850130291</v>
+        <v>0.9859448358322151</v>
       </c>
       <c r="D24">
-        <v>1.010851490493934</v>
+        <v>1.011494831630914</v>
       </c>
       <c r="E24">
-        <v>1.012033126122505</v>
+        <v>1.012269331545585</v>
       </c>
       <c r="F24">
-        <v>1.020605919791785</v>
+        <v>1.020884587035838</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041433071847644</v>
+        <v>1.041702785262476</v>
       </c>
       <c r="J24">
-        <v>1.013197543467137</v>
+        <v>1.013994872922138</v>
       </c>
       <c r="K24">
-        <v>1.024690684500426</v>
+        <v>1.025323048046875</v>
       </c>
       <c r="L24">
-        <v>1.0258521712504</v>
+        <v>1.026084356257533</v>
       </c>
       <c r="M24">
-        <v>1.034280584073954</v>
+        <v>1.034554610487414</v>
       </c>
       <c r="N24">
-        <v>1.008373086835963</v>
+        <v>1.011061209039205</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035703157115444</v>
+        <v>1.035920032071553</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028580346269823</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029041424963677</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019180838952252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9912119605026315</v>
+        <v>0.9918166567414689</v>
       </c>
       <c r="D25">
-        <v>1.014657823199042</v>
+        <v>1.015028712214949</v>
       </c>
       <c r="E25">
-        <v>1.017725613186634</v>
+        <v>1.0178913260114</v>
       </c>
       <c r="F25">
-        <v>1.025787060269935</v>
+        <v>1.025983716093412</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042436820634947</v>
+        <v>1.042594878164302</v>
       </c>
       <c r="J25">
-        <v>1.016038740386369</v>
+        <v>1.016622596777517</v>
       </c>
       <c r="K25">
-        <v>1.027032778200638</v>
+        <v>1.027398121945554</v>
       </c>
       <c r="L25">
-        <v>1.030054855264946</v>
+        <v>1.030218108785318</v>
       </c>
       <c r="M25">
-        <v>1.037997832370371</v>
+        <v>1.038191627666964</v>
       </c>
       <c r="N25">
-        <v>1.00933226804891</v>
+        <v>1.011718895300867</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03864512357052</v>
+        <v>1.038798499933781</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030233469326382</v>
+        <v>1.03050544083338</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019572158931499</v>
       </c>
     </row>
   </sheetData>
